--- a/resultats/svm_gridsearch.xlsx
+++ b/resultats/svm_gridsearch.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genevieve\Google Drive\UdS\4e année\6e session\IMN601\Projet résultat\Real\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genevieve\Git\Analyse_dimage_avance_proj\resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10550" tabRatio="844" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10550" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="MNIST" sheetId="4" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="50">
   <si>
     <t>Result squared_hinge</t>
   </si>
@@ -532,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -690,18 +690,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -710,6 +698,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -724,9 +727,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,13 +739,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -755,6 +748,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20201,15 +20204,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20239,15 +20242,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20596,7 +20599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -20623,85 +20626,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="K1" s="73" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="K1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
     </row>
     <row r="2" spans="1:19" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="83" t="str">
+      <c r="A2" s="75" t="str">
         <f>MNIST_RawPixel!F1</f>
         <v>Training Accuracy</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="K2" s="83" t="s">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="K2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="83" t="s">
+      <c r="P2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="72"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="72"/>
+      <c r="I3" s="77"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="72"/>
+      <c r="N3" s="77"/>
       <c r="O3" s="6"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="71" t="s">
+      <c r="R3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="72"/>
+      <c r="S3" s="77"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
@@ -20751,7 +20754,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="10">
@@ -20767,7 +20770,7 @@
         <v>91.433333333299998</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="10">
@@ -20782,7 +20785,7 @@
         <f>MNIST_RawPixel!N4</f>
         <v>90.988888888899993</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="22">
@@ -20798,7 +20801,7 @@
         <v>83.566666666700002</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="75" t="s">
+      <c r="P5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="22">
@@ -20815,7 +20818,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="76"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="11">
         <f>MNIST_RawPixel!G5</f>
         <v>9.9999999999999995E-7</v>
@@ -20829,7 +20832,7 @@
         <v>92.176190476200006</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="76"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="11">
         <f>MNIST_RawPixel!L5</f>
         <v>9.9999999999999995E-7</v>
@@ -20842,7 +20845,7 @@
         <f>MNIST_RawPixel!N5</f>
         <v>91.144444444399994</v>
       </c>
-      <c r="K6" s="76"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="23">
         <f>MNIST_HOG!G5</f>
         <v>1E-3</v>
@@ -20856,7 +20859,7 @@
         <v>89.976190476200003</v>
       </c>
       <c r="O6" s="4"/>
-      <c r="P6" s="76"/>
+      <c r="P6" s="72"/>
       <c r="Q6" s="23">
         <f>MNIST_HOG!L5</f>
         <v>1E-3</v>
@@ -20871,7 +20874,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="76"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="11">
         <f>MNIST_RawPixel!G6</f>
         <v>1.0000000000000001E-5</v>
@@ -20885,7 +20888,7 @@
         <v>92.504761904800006</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="76"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="11">
         <f>MNIST_RawPixel!L6</f>
         <v>1.0000000000000001E-5</v>
@@ -20898,7 +20901,7 @@
         <f>MNIST_RawPixel!N6</f>
         <v>90.972222222200003</v>
       </c>
-      <c r="K7" s="76"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="23">
         <f>MNIST_HOG!G6</f>
         <v>0.01</v>
@@ -20912,7 +20915,7 @@
         <v>92.795238095200006</v>
       </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="76"/>
+      <c r="P7" s="72"/>
       <c r="Q7" s="23">
         <f>MNIST_HOG!L6</f>
         <v>0.01</v>
@@ -20927,7 +20930,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="76"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="11">
         <f>MNIST_RawPixel!G7</f>
         <v>1E-4</v>
@@ -20941,7 +20944,7 @@
         <v>91.638095238099993</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="76"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="11">
         <f>MNIST_RawPixel!L7</f>
         <v>1E-4</v>
@@ -20954,7 +20957,7 @@
         <f>MNIST_RawPixel!N7</f>
         <v>89.866666666699999</v>
       </c>
-      <c r="K8" s="76"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="23">
         <f>MNIST_HOG!G7</f>
         <v>0.1</v>
@@ -20968,7 +20971,7 @@
         <v>93.790476190500002</v>
       </c>
       <c r="O8" s="4"/>
-      <c r="P8" s="76"/>
+      <c r="P8" s="72"/>
       <c r="Q8" s="23">
         <f>MNIST_HOG!L7</f>
         <v>0.1</v>
@@ -20983,7 +20986,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="76"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="11">
         <f>MNIST_RawPixel!G8</f>
         <v>2.5000000000000001E-4</v>
@@ -20997,7 +21000,7 @@
         <v>90.147619047600003</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="76"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="11">
         <f>MNIST_RawPixel!L8</f>
         <v>2.5000000000000001E-4</v>
@@ -21010,7 +21013,7 @@
         <f>MNIST_RawPixel!N8</f>
         <v>88.461111111099996</v>
       </c>
-      <c r="K9" s="76"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="23">
         <f>MNIST_HOG!G8</f>
         <v>0.5</v>
@@ -21024,7 +21027,7 @@
         <v>94.085714285700007</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="P9" s="76"/>
+      <c r="P9" s="72"/>
       <c r="Q9" s="23">
         <f>MNIST_HOG!L8</f>
         <v>0.5</v>
@@ -21039,7 +21042,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="76"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="11">
         <f>MNIST_RawPixel!G9</f>
         <v>5.0000000000000001E-3</v>
@@ -21053,7 +21056,7 @@
         <v>85.1976190476</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="76"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="11">
         <f>MNIST_RawPixel!L9</f>
         <v>5.0000000000000001E-3</v>
@@ -21066,7 +21069,7 @@
         <f>MNIST_RawPixel!N9</f>
         <v>83.972222222200003</v>
       </c>
-      <c r="K10" s="76"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="23">
         <f>MNIST_HOG!G9</f>
         <v>1</v>
@@ -21080,7 +21083,7 @@
         <v>94.140476190499996</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="P10" s="76"/>
+      <c r="P10" s="72"/>
       <c r="Q10" s="23">
         <f>MNIST_HOG!L9</f>
         <v>1</v>
@@ -21095,7 +21098,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="11">
         <f>MNIST_RawPixel!G10</f>
         <v>0.01</v>
@@ -21109,7 +21112,7 @@
         <v>86.819047619000003</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="76"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="11">
         <f>MNIST_RawPixel!L10</f>
         <v>0.01</v>
@@ -21122,7 +21125,7 @@
         <f>MNIST_RawPixel!N10</f>
         <v>85.505555555599997</v>
       </c>
-      <c r="K11" s="76"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="23">
         <f>MNIST_HOG!G10</f>
         <v>1.5</v>
@@ -21136,7 +21139,7 @@
         <v>94.154761904799997</v>
       </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="76"/>
+      <c r="P11" s="72"/>
       <c r="Q11" s="23">
         <f>MNIST_HOG!L10</f>
         <v>1.5</v>
@@ -21151,7 +21154,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="76"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="11">
         <f>MNIST_RawPixel!G11</f>
         <v>2.5000000000000001E-2</v>
@@ -21165,7 +21168,7 @@
         <v>86.771428571399994</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="76"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="11">
         <f>MNIST_RawPixel!L11</f>
         <v>2.5000000000000001E-2</v>
@@ -21178,7 +21181,7 @@
         <f>MNIST_RawPixel!N11</f>
         <v>84.883333333300001</v>
       </c>
-      <c r="K12" s="76"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="23">
         <f>MNIST_HOG!G11</f>
         <v>2</v>
@@ -21192,7 +21195,7 @@
         <v>94.166666666699996</v>
       </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="76"/>
+      <c r="P12" s="72"/>
       <c r="Q12" s="23">
         <f>MNIST_HOG!L11</f>
         <v>2</v>
@@ -21207,7 +21210,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="76"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="11">
         <f>MNIST_RawPixel!G12</f>
         <v>0.05</v>
@@ -21221,7 +21224,7 @@
         <v>89.245238095199994</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="76"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="11">
         <f>MNIST_RawPixel!L12</f>
         <v>0.05</v>
@@ -21234,7 +21237,7 @@
         <f>MNIST_RawPixel!N12</f>
         <v>87.494444444400003</v>
       </c>
-      <c r="K13" s="76"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="23">
         <f>MNIST_HOG!G12</f>
         <v>2.5</v>
@@ -21248,7 +21251,7 @@
         <v>94.166666666699996</v>
       </c>
       <c r="O13" s="4"/>
-      <c r="P13" s="76"/>
+      <c r="P13" s="72"/>
       <c r="Q13" s="23">
         <f>MNIST_HOG!L12</f>
         <v>2.5</v>
@@ -21263,7 +21266,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="76"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="11">
         <f>MNIST_RawPixel!G13</f>
         <v>7.4999999999999997E-2</v>
@@ -21277,7 +21280,7 @@
         <v>88.238095238100001</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="76"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="11">
         <f>MNIST_RawPixel!L13</f>
         <v>7.4999999999999997E-2</v>
@@ -21290,7 +21293,7 @@
         <f>MNIST_RawPixel!N13</f>
         <v>86.483333333299996</v>
       </c>
-      <c r="K14" s="76"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="23">
         <f>MNIST_HOG!G13</f>
         <v>3</v>
@@ -21304,7 +21307,7 @@
         <v>94.161904761900004</v>
       </c>
       <c r="O14" s="4"/>
-      <c r="P14" s="76"/>
+      <c r="P14" s="72"/>
       <c r="Q14" s="23">
         <f>MNIST_HOG!L13</f>
         <v>3</v>
@@ -21319,7 +21322,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="76"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="11">
         <f>MNIST_RawPixel!G14</f>
         <v>0.1</v>
@@ -21333,7 +21336,7 @@
         <v>88.623809523800006</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="76"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="11">
         <f>MNIST_RawPixel!L14</f>
         <v>0.1</v>
@@ -21346,7 +21349,7 @@
         <f>MNIST_RawPixel!N14</f>
         <v>87.094444444399997</v>
       </c>
-      <c r="K15" s="76"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="23">
         <f>MNIST_HOG!G14</f>
         <v>3.5</v>
@@ -21360,7 +21363,7 @@
         <v>94.164285714299993</v>
       </c>
       <c r="O15" s="4"/>
-      <c r="P15" s="76"/>
+      <c r="P15" s="72"/>
       <c r="Q15" s="23">
         <f>MNIST_HOG!L14</f>
         <v>3.5</v>
@@ -21375,7 +21378,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="76"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="11">
         <f>MNIST_RawPixel!G15</f>
         <v>0.25</v>
@@ -21389,7 +21392,7 @@
         <v>89.259523809499996</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="76"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="11">
         <f>MNIST_RawPixel!L15</f>
         <v>0.25</v>
@@ -21402,7 +21405,7 @@
         <f>MNIST_RawPixel!N15</f>
         <v>87.766666666700004</v>
       </c>
-      <c r="K16" s="76"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="23">
         <f>MNIST_HOG!G15</f>
         <v>4</v>
@@ -21416,7 +21419,7 @@
         <v>94.1714285714</v>
       </c>
       <c r="O16" s="4"/>
-      <c r="P16" s="76"/>
+      <c r="P16" s="72"/>
       <c r="Q16" s="23">
         <f>MNIST_HOG!L15</f>
         <v>4</v>
@@ -21431,7 +21434,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="76"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="11">
         <f>MNIST_RawPixel!G16</f>
         <v>0.5</v>
@@ -21445,7 +21448,7 @@
         <v>84.883333333300001</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="76"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="11">
         <f>MNIST_RawPixel!L16</f>
         <v>0.5</v>
@@ -21458,7 +21461,7 @@
         <f>MNIST_RawPixel!N16</f>
         <v>82.927777777800003</v>
       </c>
-      <c r="K17" s="76"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="23">
         <f>MNIST_HOG!G16</f>
         <v>4.5</v>
@@ -21472,7 +21475,7 @@
         <v>94.173809523800003</v>
       </c>
       <c r="O17" s="4"/>
-      <c r="P17" s="76"/>
+      <c r="P17" s="72"/>
       <c r="Q17" s="23">
         <f>MNIST_HOG!L16</f>
         <v>4.5</v>
@@ -21487,7 +21490,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="76"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="11">
         <f>MNIST_RawPixel!G17</f>
         <v>0.75</v>
@@ -21501,7 +21504,7 @@
         <v>87.9476190476</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="76"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="11">
         <f>MNIST_RawPixel!L17</f>
         <v>0.75</v>
@@ -21514,7 +21517,7 @@
         <f>MNIST_RawPixel!N17</f>
         <v>86.05</v>
       </c>
-      <c r="K18" s="77"/>
+      <c r="K18" s="73"/>
       <c r="L18" s="24">
         <f>MNIST_HOG!G17</f>
         <v>5</v>
@@ -21528,7 +21531,7 @@
         <v>94.176190476200006</v>
       </c>
       <c r="O18" s="4"/>
-      <c r="P18" s="77"/>
+      <c r="P18" s="73"/>
       <c r="Q18" s="24">
         <f>MNIST_HOG!L17</f>
         <v>5</v>
@@ -21543,7 +21546,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="77"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="12">
         <f>MNIST_RawPixel!G18</f>
         <v>1</v>
@@ -21557,7 +21560,7 @@
         <v>85.761904761899999</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="77"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="12">
         <f>MNIST_RawPixel!L18</f>
         <v>1</v>
@@ -21572,41 +21575,41 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="K21" s="73" t="s">
+      <c r="K21" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
     </row>
     <row r="22" spans="1:19" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="81"/>
-      <c r="K22" s="83" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="82"/>
+      <c r="K22" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="83" t="s">
+      <c r="P22" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C23" s="49" t="s">
@@ -21615,11 +21618,11 @@
       <c r="D23" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="82" t="s">
+      <c r="E23" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
       <c r="H23" s="34" t="s">
         <v>20</v>
       </c>
@@ -21628,17 +21631,17 @@
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="71" t="s">
+      <c r="M23" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N23" s="72"/>
+      <c r="N23" s="77"/>
       <c r="O23" s="6"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="71" t="s">
+      <c r="R23" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="S23" s="72"/>
+      <c r="S23" s="77"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C24" s="45" t="s">
@@ -21648,12 +21651,12 @@
         <f>MNIST_RawPixel!G23</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E24" s="74" t="str">
+      <c r="E24" s="78" t="str">
         <f>MNIST_RawPixel!H23</f>
         <v>Hinge</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
       <c r="H24" s="44">
         <f>MNIST_RawPixel!I23</f>
         <v>91.993333333300001</v>
@@ -21688,12 +21691,12 @@
         <f>MNIST_HOG!G22</f>
         <v>3.5</v>
       </c>
-      <c r="E25" s="74" t="str">
+      <c r="E25" s="78" t="str">
         <f>MNIST_HOG!H22</f>
         <v>Hinge</v>
       </c>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="30">
         <f>MNIST_HOG!I22</f>
         <v>94.183333333299998</v>
@@ -21702,7 +21705,7 @@
         <f>MNIST_HOG!J22</f>
         <v>94.22</v>
       </c>
-      <c r="K25" s="75" t="s">
+      <c r="K25" s="71" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="22">
@@ -21718,7 +21721,7 @@
         <v>89.635714285700004</v>
       </c>
       <c r="O25" s="4"/>
-      <c r="P25" s="75" t="s">
+      <c r="P25" s="71" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="22">
@@ -21742,15 +21745,15 @@
         <f>MNIST_DownsHOG!G22</f>
         <v>0.01</v>
       </c>
-      <c r="E26" s="78" t="str">
+      <c r="E26" s="79" t="str">
         <f>MNIST_DownsHOG!H22</f>
         <v>Hinge</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="79">
         <f>MNIST_DownsHOG!I22</f>
         <v>93.201666666700007</v>
       </c>
-      <c r="G26" s="78">
+      <c r="G26" s="79">
         <f>MNIST_DownsHOG!J22</f>
         <v>93.61</v>
       </c>
@@ -21761,7 +21764,7 @@
       <c r="I26" s="57">
         <v>93.201666666700007</v>
       </c>
-      <c r="K26" s="76"/>
+      <c r="K26" s="72"/>
       <c r="L26" s="23">
         <f>MNIST_DownsHOG!G5</f>
         <v>1E-3</v>
@@ -21775,7 +21778,7 @@
         <v>93.647619047600003</v>
       </c>
       <c r="O26" s="4"/>
-      <c r="P26" s="76"/>
+      <c r="P26" s="72"/>
       <c r="Q26" s="23">
         <f>MNIST_DownsHOG!L5</f>
         <v>1E-3</v>
@@ -21790,7 +21793,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K27" s="76"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="23">
         <f>MNIST_DownsHOG!G6</f>
         <v>0.01</v>
@@ -21804,7 +21807,7 @@
         <v>93.576190476199997</v>
       </c>
       <c r="O27" s="4"/>
-      <c r="P27" s="76"/>
+      <c r="P27" s="72"/>
       <c r="Q27" s="23">
         <f>MNIST_DownsHOG!L6</f>
         <v>0.01</v>
@@ -21819,7 +21822,28 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K28" s="76"/>
+      <c r="C28" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="95">
+        <f>'X MNIST_BOW'!G28</f>
+        <v>1.75</v>
+      </c>
+      <c r="E28" s="95" t="str">
+        <f>'X MNIST_BOW'!H28</f>
+        <v>Squared Hinge</v>
+      </c>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95">
+        <f>'X MNIST_BOW'!I28</f>
+        <v>86.284999999999997</v>
+      </c>
+      <c r="I28" s="96">
+        <f>'X MNIST_BOW'!J28</f>
+        <v>86.17</v>
+      </c>
+      <c r="K28" s="72"/>
       <c r="L28" s="23">
         <f>MNIST_DownsHOG!G7</f>
         <v>0.1</v>
@@ -21833,7 +21857,7 @@
         <v>93.45</v>
       </c>
       <c r="O28" s="4"/>
-      <c r="P28" s="76"/>
+      <c r="P28" s="72"/>
       <c r="Q28" s="23">
         <f>MNIST_DownsHOG!L7</f>
         <v>0.1</v>
@@ -21848,7 +21872,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K29" s="76"/>
+      <c r="K29" s="72"/>
       <c r="L29" s="23">
         <f>MNIST_DownsHOG!G8</f>
         <v>0.5</v>
@@ -21862,7 +21886,7 @@
         <v>93.445238095199997</v>
       </c>
       <c r="O29" s="4"/>
-      <c r="P29" s="76"/>
+      <c r="P29" s="72"/>
       <c r="Q29" s="23">
         <f>MNIST_DownsHOG!L8</f>
         <v>0.5</v>
@@ -21877,7 +21901,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K30" s="76"/>
+      <c r="K30" s="72"/>
       <c r="L30" s="23">
         <f>MNIST_DownsHOG!G9</f>
         <v>1</v>
@@ -21891,7 +21915,7 @@
         <v>93.876190476199994</v>
       </c>
       <c r="O30" s="4"/>
-      <c r="P30" s="76"/>
+      <c r="P30" s="72"/>
       <c r="Q30" s="23">
         <f>MNIST_DownsHOG!L9</f>
         <v>1</v>
@@ -21906,7 +21930,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K31" s="76"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="23">
         <f>MNIST_DownsHOG!G10</f>
         <v>1.5</v>
@@ -21920,7 +21944,7 @@
         <v>93.207142857099996</v>
       </c>
       <c r="O31" s="4"/>
-      <c r="P31" s="76"/>
+      <c r="P31" s="72"/>
       <c r="Q31" s="23">
         <f>MNIST_DownsHOG!L10</f>
         <v>1.5</v>
@@ -21935,7 +21959,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K32" s="76"/>
+      <c r="K32" s="72"/>
       <c r="L32" s="23">
         <f>MNIST_DownsHOG!G11</f>
         <v>2</v>
@@ -21949,7 +21973,7 @@
         <v>93.430952380999997</v>
       </c>
       <c r="O32" s="4"/>
-      <c r="P32" s="76"/>
+      <c r="P32" s="72"/>
       <c r="Q32" s="23">
         <f>MNIST_DownsHOG!L11</f>
         <v>2</v>
@@ -21964,7 +21988,7 @@
       </c>
     </row>
     <row r="33" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K33" s="76"/>
+      <c r="K33" s="72"/>
       <c r="L33" s="23">
         <f>MNIST_DownsHOG!G12</f>
         <v>2.5</v>
@@ -21978,7 +22002,7 @@
         <v>93.554761904800003</v>
       </c>
       <c r="O33" s="4"/>
-      <c r="P33" s="76"/>
+      <c r="P33" s="72"/>
       <c r="Q33" s="23">
         <f>MNIST_DownsHOG!L12</f>
         <v>2.5</v>
@@ -21993,7 +22017,7 @@
       </c>
     </row>
     <row r="34" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K34" s="76"/>
+      <c r="K34" s="72"/>
       <c r="L34" s="23">
         <f>MNIST_DownsHOG!G13</f>
         <v>3</v>
@@ -22007,7 +22031,7 @@
         <v>91.523809523799997</v>
       </c>
       <c r="O34" s="4"/>
-      <c r="P34" s="76"/>
+      <c r="P34" s="72"/>
       <c r="Q34" s="23">
         <f>MNIST_DownsHOG!L13</f>
         <v>3</v>
@@ -22022,7 +22046,7 @@
       </c>
     </row>
     <row r="35" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K35" s="76"/>
+      <c r="K35" s="72"/>
       <c r="L35" s="23">
         <f>MNIST_DownsHOG!G14</f>
         <v>3.5</v>
@@ -22036,7 +22060,7 @@
         <v>90.954761904799994</v>
       </c>
       <c r="O35" s="4"/>
-      <c r="P35" s="76"/>
+      <c r="P35" s="72"/>
       <c r="Q35" s="23">
         <f>MNIST_DownsHOG!L14</f>
         <v>3.5</v>
@@ -22051,7 +22075,7 @@
       </c>
     </row>
     <row r="36" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K36" s="76"/>
+      <c r="K36" s="72"/>
       <c r="L36" s="23">
         <f>MNIST_DownsHOG!G15</f>
         <v>4</v>
@@ -22065,7 +22089,7 @@
         <v>89.659523809500001</v>
       </c>
       <c r="O36" s="4"/>
-      <c r="P36" s="76"/>
+      <c r="P36" s="72"/>
       <c r="Q36" s="23">
         <f>MNIST_DownsHOG!L15</f>
         <v>4</v>
@@ -22080,7 +22104,7 @@
       </c>
     </row>
     <row r="37" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K37" s="76"/>
+      <c r="K37" s="72"/>
       <c r="L37" s="23">
         <f>MNIST_DownsHOG!G16</f>
         <v>4.5</v>
@@ -22094,7 +22118,7 @@
         <v>93.438095238100004</v>
       </c>
       <c r="O37" s="4"/>
-      <c r="P37" s="76"/>
+      <c r="P37" s="72"/>
       <c r="Q37" s="23">
         <f>MNIST_DownsHOG!L16</f>
         <v>4.5</v>
@@ -22109,7 +22133,7 @@
       </c>
     </row>
     <row r="38" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K38" s="77"/>
+      <c r="K38" s="73"/>
       <c r="L38" s="24">
         <f>MNIST_DownsHOG!G17</f>
         <v>5</v>
@@ -22123,7 +22147,7 @@
         <v>93.928571428599994</v>
       </c>
       <c r="O38" s="4"/>
-      <c r="P38" s="77"/>
+      <c r="P38" s="73"/>
       <c r="Q38" s="24">
         <f>MNIST_DownsHOG!L17</f>
         <v>5</v>
@@ -22139,6 +22163,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="K25:K38"/>
+    <mergeCell ref="P25:P38"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
     <mergeCell ref="A5:A19"/>
     <mergeCell ref="P5:P18"/>
     <mergeCell ref="K5:K18"/>
@@ -22155,16 +22189,6 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="F5:F19"/>
     <mergeCell ref="P22:S22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="K25:K38"/>
-    <mergeCell ref="P25:P38"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E19">
     <cfRule type="colorScale" priority="17">
@@ -22283,7 +22307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -22310,19 +22334,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
       <c r="P1" s="35" t="s">
         <v>32</v>
       </c>
@@ -22362,15 +22386,15 @@
         <v>-0.62698412698399997</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="72"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="6"/>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="72"/>
+      <c r="N2" s="77"/>
       <c r="P2" s="38" t="s">
         <v>24</v>
       </c>
@@ -22433,7 +22457,7 @@
         <v>0.30634920634899998</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="10">
@@ -22449,7 +22473,7 @@
         <v>78.580952381000003</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="88" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="10">
@@ -22479,7 +22503,7 @@
         <v>0.43015873015900002</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="76"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="11">
         <f t="shared" ref="G5:G21" si="0">A3</f>
         <v>1E-3</v>
@@ -22493,7 +22517,7 @@
         <v>83.504761904800006</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="92"/>
+      <c r="K5" s="89"/>
       <c r="L5" s="11">
         <f t="shared" ref="L5:L22" si="2">A3</f>
         <v>1E-3</v>
@@ -22537,7 +22561,7 @@
         <v>0.79444444444399998</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="76"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>0.01</v>
@@ -22551,7 +22575,7 @@
         <v>85.292857142900004</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="92"/>
+      <c r="K6" s="89"/>
       <c r="L6" s="11">
         <f t="shared" si="2"/>
         <v>0.01</v>
@@ -22611,7 +22635,7 @@
         <v>0.788888888889</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="76"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
@@ -22625,7 +22649,7 @@
         <v>85.583333333300004</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="92"/>
+      <c r="K7" s="89"/>
       <c r="L7" s="11">
         <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
@@ -22689,7 +22713,7 @@
         <v>0.86825396825400003</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="76"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>0.05</v>
@@ -22703,7 +22727,7 @@
         <v>85.6714285714</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="92"/>
+      <c r="K8" s="89"/>
       <c r="L8" s="11">
         <f t="shared" si="2"/>
         <v>0.05</v>
@@ -22765,7 +22789,7 @@
         <v>0.99603174603199995</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="76"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
@@ -22779,7 +22803,7 @@
         <v>85.680952380999997</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="92"/>
+      <c r="K9" s="89"/>
       <c r="L9" s="11">
         <f t="shared" si="2"/>
         <v>7.4999999999999997E-2</v>
@@ -22841,7 +22865,7 @@
         <v>1.1626984127</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="76"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>0.1</v>
@@ -22855,7 +22879,7 @@
         <v>85.692857142899996</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="92"/>
+      <c r="K10" s="89"/>
       <c r="L10" s="11">
         <f t="shared" si="2"/>
         <v>0.1</v>
@@ -22917,7 +22941,7 @@
         <v>1.1753968254</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="76"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>0.25</v>
@@ -22931,7 +22955,7 @@
         <v>85.721428571399997</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="92"/>
+      <c r="K11" s="89"/>
       <c r="L11" s="11">
         <f t="shared" si="2"/>
         <v>0.25</v>
@@ -22993,7 +23017,7 @@
         <v>1.2626984127000001</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="76"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -23007,7 +23031,7 @@
         <v>85.761904761899999</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="92"/>
+      <c r="K12" s="89"/>
       <c r="L12" s="11">
         <f t="shared" si="2"/>
         <v>0.5</v>
@@ -23069,7 +23093,7 @@
         <v>1.2873015873</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="76"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>0.75</v>
@@ -23083,7 +23107,7 @@
         <v>85.778571428600003</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="92"/>
+      <c r="K13" s="89"/>
       <c r="L13" s="11">
         <f t="shared" si="2"/>
         <v>0.75</v>
@@ -23145,7 +23169,7 @@
         <v>1.2373015872999999</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="76"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -23159,7 +23183,7 @@
         <v>85.754761904800006</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="92"/>
+      <c r="K14" s="89"/>
       <c r="L14" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -23221,7 +23245,7 @@
         <v>1.25793650794</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="76"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
         <v>1.25</v>
@@ -23235,7 +23259,7 @@
         <v>85.778571428600003</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="92"/>
+      <c r="K15" s="89"/>
       <c r="L15" s="11">
         <f t="shared" si="2"/>
         <v>1.25</v>
@@ -23297,7 +23321,7 @@
         <v>1.3206349206300001</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="76"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>1.5</v>
@@ -23311,7 +23335,7 @@
         <v>85.792857142900004</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="92"/>
+      <c r="K16" s="89"/>
       <c r="L16" s="11">
         <f t="shared" si="2"/>
         <v>1.5</v>
@@ -23373,7 +23397,7 @@
         <v>1.3119047618999999</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="76"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>1.75</v>
@@ -23387,7 +23411,7 @@
         <v>85.830952381000003</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="92"/>
+      <c r="K17" s="89"/>
       <c r="L17" s="11">
         <f t="shared" si="2"/>
         <v>1.75</v>
@@ -23415,7 +23439,7 @@
         <v>1.3682539682499999</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="76"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -23429,7 +23453,7 @@
         <v>85.788095238099999</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="92"/>
+      <c r="K18" s="89"/>
       <c r="L18" s="11">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -23457,7 +23481,7 @@
         <v>1.4325396825400001</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="76"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
         <v>2.5</v>
@@ -23471,7 +23495,7 @@
         <v>85.773809523799997</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="92"/>
+      <c r="K19" s="89"/>
       <c r="L19" s="11">
         <f t="shared" si="2"/>
         <v>2.5</v>
@@ -23499,7 +23523,7 @@
         <v>1.2539682539699999</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="76"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -23513,7 +23537,7 @@
         <v>85.747619047599997</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="92"/>
+      <c r="K20" s="89"/>
       <c r="L20" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -23532,7 +23556,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="76"/>
+      <c r="F21" s="72"/>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -23546,7 +23570,7 @@
         <v>85.680952380999997</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="92"/>
+      <c r="K21" s="89"/>
       <c r="L21" s="11">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -23574,7 +23598,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="77"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="11">
         <f>A20</f>
         <v>5</v>
@@ -23588,7 +23612,7 @@
         <v>85.157142857099998</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="93"/>
+      <c r="K22" s="90"/>
       <c r="L22" s="12">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -24018,7 +24042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -24045,19 +24071,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
       <c r="P1" s="35" t="s">
         <v>31</v>
       </c>
@@ -24096,15 +24122,15 @@
       <c r="D2" s="1">
         <v>7.9047619047600007E-2</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="72"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="6"/>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="72"/>
+      <c r="N2" s="77"/>
       <c r="P2" s="38" t="s">
         <v>24</v>
       </c>
@@ -24165,7 +24191,7 @@
       <c r="D4" s="1">
         <v>0.307619047619</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="10">
@@ -24181,7 +24207,7 @@
         <v>29.031428571399999</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="10">
@@ -24210,7 +24236,7 @@
       <c r="D5" s="1">
         <v>0.08</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="11">
         <f t="shared" ref="G5:H5" si="0">A3</f>
         <v>1E-3</v>
@@ -24224,7 +24250,7 @@
         <v>32.514285714300001</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="76"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="11">
         <f t="shared" ref="L5:L24" si="2">A3</f>
         <v>1E-3</v>
@@ -24267,7 +24293,7 @@
       <c r="D6" s="1">
         <v>0.53047619047600003</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="11">
         <f t="shared" ref="G6:H6" si="5">A4</f>
         <v>2.5000000000000001E-3</v>
@@ -24281,7 +24307,7 @@
         <v>34.334285714300002</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="76"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="11">
         <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
@@ -24340,7 +24366,7 @@
       <c r="D7" s="1">
         <v>0.425714285714</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="11">
         <f t="shared" ref="G7:H7" si="6">A5</f>
         <v>5.0000000000000001E-3</v>
@@ -24354,7 +24380,7 @@
         <v>35.225714285700001</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="76"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="11">
         <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
@@ -24417,7 +24443,7 @@
       <c r="D8" s="1">
         <v>0.76095238095200002</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="11">
         <f t="shared" ref="G8:H8" si="7">A6</f>
         <v>7.4999999999999997E-3</v>
@@ -24431,7 +24457,7 @@
         <v>35.534285714299997</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="76"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="11">
         <f t="shared" si="2"/>
         <v>7.4999999999999997E-3</v>
@@ -24492,7 +24518,7 @@
       <c r="D9" s="1">
         <v>0.192380952381</v>
       </c>
-      <c r="F9" s="76"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="11">
         <f t="shared" ref="G9:H9" si="8">A7</f>
         <v>0.01</v>
@@ -24506,7 +24532,7 @@
         <v>35.68</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="76"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="11">
         <f t="shared" si="2"/>
         <v>0.01</v>
@@ -24567,7 +24593,7 @@
       <c r="D10" s="1">
         <v>0.54571428571400005</v>
       </c>
-      <c r="F10" s="76"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="11">
         <f t="shared" ref="G10:H10" si="9">A8</f>
         <v>2.5000000000000001E-2</v>
@@ -24581,7 +24607,7 @@
         <v>35.977142857099999</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="76"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="11">
         <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
@@ -24642,7 +24668,7 @@
       <c r="D11" s="1">
         <v>0.46380952381000001</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="11">
         <f t="shared" ref="G11:H11" si="10">A9</f>
         <v>0.05</v>
@@ -24656,7 +24682,7 @@
         <v>36.214285714299997</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="76"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="11">
         <f t="shared" si="2"/>
         <v>0.05</v>
@@ -24717,7 +24743,7 @@
       <c r="D12" s="1">
         <v>-0.33142857142900001</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="11">
         <f t="shared" ref="G12:H12" si="11">A10</f>
         <v>7.4999999999999997E-2</v>
@@ -24731,7 +24757,7 @@
         <v>36.262857142900003</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="11">
         <f t="shared" si="2"/>
         <v>7.4999999999999997E-2</v>
@@ -24792,7 +24818,7 @@
       <c r="D13" s="1">
         <v>-0.18666666666699999</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="11">
         <f t="shared" ref="G13:H13" si="12">A11</f>
         <v>0.1</v>
@@ -24806,7 +24832,7 @@
         <v>36.294285714300003</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="76"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="11">
         <f t="shared" si="2"/>
         <v>0.1</v>
@@ -24867,7 +24893,7 @@
       <c r="D14" s="1">
         <v>0.02</v>
       </c>
-      <c r="F14" s="76"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="11">
         <f t="shared" ref="G14:H14" si="13">A12</f>
         <v>0.5</v>
@@ -24881,7 +24907,7 @@
         <v>36.36</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="76"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="11">
         <f t="shared" si="2"/>
         <v>0.5</v>
@@ -24942,7 +24968,7 @@
       <c r="D15" s="1">
         <v>-7.0476190476200004E-2</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="11">
         <f t="shared" ref="G15:H15" si="14">A13</f>
         <v>0.75</v>
@@ -24956,7 +24982,7 @@
         <v>36.4142857143</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="76"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="11">
         <f t="shared" si="2"/>
         <v>0.75</v>
@@ -25017,7 +25043,7 @@
       <c r="D16" s="1">
         <v>-0.68190476190500005</v>
       </c>
-      <c r="F16" s="76"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="11">
         <f t="shared" ref="G16:H16" si="15">A14</f>
         <v>1</v>
@@ -25031,7 +25057,7 @@
         <v>36.465714285700003</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="76"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -25092,7 +25118,7 @@
       <c r="D17" s="1">
         <v>-0.17428571428600001</v>
       </c>
-      <c r="F17" s="76"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="11">
         <f t="shared" ref="G17:H17" si="16">A15</f>
         <v>1.25</v>
@@ -25106,7 +25132,7 @@
         <v>36.471428571399997</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="76"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="11">
         <f t="shared" si="2"/>
         <v>1.25</v>
@@ -25133,7 +25159,7 @@
       <c r="D18" s="1">
         <v>-0.47047619047599998</v>
       </c>
-      <c r="F18" s="76"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="11">
         <f t="shared" ref="G18:H18" si="17">A16</f>
         <v>1.5</v>
@@ -25147,7 +25173,7 @@
         <v>36.5085714286</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="76"/>
+      <c r="K18" s="72"/>
       <c r="L18" s="11">
         <f t="shared" si="2"/>
         <v>1.5</v>
@@ -25174,7 +25200,7 @@
       <c r="D19" s="1">
         <v>-5.3333333333300002E-2</v>
       </c>
-      <c r="F19" s="76"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="11">
         <f t="shared" ref="G19:H19" si="18">A17</f>
         <v>1.75</v>
@@ -25188,7 +25214,7 @@
         <v>36.514285714300001</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="76"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="11">
         <f t="shared" si="2"/>
         <v>1.75</v>
@@ -25215,7 +25241,7 @@
       <c r="D20" s="1">
         <v>0.36190476190499998</v>
       </c>
-      <c r="F20" s="76"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="11">
         <f t="shared" ref="G20:H20" si="19">A18</f>
         <v>2</v>
@@ -25229,7 +25255,7 @@
         <v>36.542857142899997</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="76"/>
+      <c r="K20" s="72"/>
       <c r="L20" s="11">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -25256,7 +25282,7 @@
       <c r="D21" s="1">
         <v>0.12666666666699999</v>
       </c>
-      <c r="F21" s="76"/>
+      <c r="F21" s="72"/>
       <c r="G21" s="11">
         <f t="shared" ref="G21:H21" si="20">A19</f>
         <v>2.25</v>
@@ -25270,7 +25296,7 @@
         <v>36.542857142899997</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="76"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="11">
         <f t="shared" si="2"/>
         <v>2.25</v>
@@ -25297,7 +25323,7 @@
       <c r="D22" s="1">
         <v>-3.2380952381E-2</v>
       </c>
-      <c r="F22" s="76"/>
+      <c r="F22" s="72"/>
       <c r="G22" s="11">
         <f t="shared" ref="G22:H22" si="21">A20</f>
         <v>2.5</v>
@@ -25311,7 +25337,7 @@
         <v>36.548571428599999</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="76"/>
+      <c r="K22" s="72"/>
       <c r="L22" s="11">
         <f t="shared" si="2"/>
         <v>2.5</v>
@@ -25326,7 +25352,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="F23" s="76"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="11">
         <f t="shared" ref="G23:H23" si="22">A21</f>
         <v>2.75</v>
@@ -25340,7 +25366,7 @@
         <v>36.554285714300001</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="76"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="11">
         <f t="shared" si="2"/>
         <v>2.75</v>
@@ -25367,7 +25393,7 @@
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="77"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="12">
         <f t="shared" ref="G24:H24" si="23">A22</f>
         <v>3</v>
@@ -25381,7 +25407,7 @@
         <v>36.5628571429</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="77"/>
+      <c r="K24" s="73"/>
       <c r="L24" s="12">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -25730,16 +25756,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F4:F24"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="P5:Q6"/>
     <mergeCell ref="R5:AA5"/>
     <mergeCell ref="P7:P16"/>
     <mergeCell ref="G27:J27"/>
     <mergeCell ref="K4:K24"/>
-    <mergeCell ref="F4:F24"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="S7:AA7 R16:Z16 R15:Y15 AA15 R14:X14 Z14:AA14 R13:W13 Y13:AA13 R12:V12 X12:AA12 R11:U11 W11:AA11 R10:T10 V10:AA10 R9:S9 U9:AA9 R8 T8:AA8">
     <cfRule type="colorScale" priority="2">
@@ -25842,19 +25868,19 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
       <c r="P1" s="35" t="s">
         <v>30</v>
       </c>
@@ -25893,15 +25919,15 @@
       <c r="D2" s="4">
         <v>0.134126984127</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="72"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="6"/>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="72"/>
+      <c r="N2" s="77"/>
       <c r="P2" s="38" t="s">
         <v>24</v>
       </c>
@@ -25981,7 +26007,7 @@
       <c r="D4" s="4">
         <v>1.3444444444400001</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="10">
@@ -25997,7 +26023,7 @@
         <v>91.433333333299998</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="10">
@@ -26038,7 +26064,7 @@
       <c r="D5" s="4">
         <v>1.9238095238099999</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>9.9999999999999995E-7</v>
@@ -26052,7 +26078,7 @@
         <v>92.176190476200006</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="76"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="11">
         <f>A3</f>
         <v>9.9999999999999995E-7</v>
@@ -26095,7 +26121,7 @@
       <c r="D6" s="4">
         <v>2.0182539682499998</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
@@ -26109,7 +26135,7 @@
         <v>92.504761904800006</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="76"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="11">
         <f t="shared" ref="L6:L18" si="5">A4</f>
         <v>1.0000000000000001E-5</v>
@@ -26169,7 +26195,7 @@
       <c r="D7" s="4">
         <v>2.0436507936499999</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>1E-4</v>
@@ -26183,7 +26209,7 @@
         <v>91.638095238099993</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="76"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="11">
         <f t="shared" si="5"/>
         <v>1E-4</v>
@@ -26246,7 +26272,7 @@
       <c r="D8" s="4">
         <v>2.0436507936499999</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-4</v>
@@ -26260,7 +26286,7 @@
         <v>90.147619047600003</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="76"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="11">
         <f t="shared" si="5"/>
         <v>2.5000000000000001E-4</v>
@@ -26321,7 +26347,7 @@
       <c r="D9" s="4">
         <v>2.0436507936499999</v>
       </c>
-      <c r="F9" s="76"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
@@ -26335,7 +26361,7 @@
         <v>85.1976190476</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="76"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="11">
         <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
@@ -26396,7 +26422,7 @@
       <c r="D10" s="4">
         <v>2.0436507936499999</v>
       </c>
-      <c r="F10" s="76"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>0.01</v>
@@ -26410,7 +26436,7 @@
         <v>86.819047619000003</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="76"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="11">
         <f t="shared" si="5"/>
         <v>0.01</v>
@@ -26471,7 +26497,7 @@
       <c r="D11" s="4">
         <v>2.0436507936499999</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
@@ -26485,7 +26511,7 @@
         <v>86.771428571399994</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="76"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="11">
         <f t="shared" si="5"/>
         <v>2.5000000000000001E-2</v>
@@ -26546,7 +26572,7 @@
       <c r="D12" s="4">
         <v>2.0436507936499999</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>0.05</v>
@@ -26560,7 +26586,7 @@
         <v>89.245238095199994</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="11">
         <f t="shared" si="5"/>
         <v>0.05</v>
@@ -26621,7 +26647,7 @@
       <c r="D13" s="4">
         <v>2.0436507936499999</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
@@ -26635,7 +26661,7 @@
         <v>88.238095238100001</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="76"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="11">
         <f t="shared" si="5"/>
         <v>7.4999999999999997E-2</v>
@@ -26696,7 +26722,7 @@
       <c r="D14" s="4">
         <v>2.0436507936499999</v>
       </c>
-      <c r="F14" s="76"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>0.1</v>
@@ -26710,7 +26736,7 @@
         <v>88.623809523800006</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="76"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="11">
         <f t="shared" si="5"/>
         <v>0.1</v>
@@ -26771,7 +26797,7 @@
       <c r="D15" s="4">
         <v>2.0436507936499999</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
         <v>0.25</v>
@@ -26785,7 +26811,7 @@
         <v>89.259523809499996</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="76"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="11">
         <f t="shared" si="5"/>
         <v>0.25</v>
@@ -26846,7 +26872,7 @@
       <c r="D16" s="4">
         <v>2.0436507936499999</v>
       </c>
-      <c r="F16" s="76"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -26860,7 +26886,7 @@
         <v>84.883333333300001</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="76"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="11">
         <f t="shared" si="5"/>
         <v>0.5</v>
@@ -26909,7 +26935,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="F17" s="76"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>0.75</v>
@@ -26923,7 +26949,7 @@
         <v>87.9476190476</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="76"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="11">
         <f t="shared" si="5"/>
         <v>0.75</v>
@@ -26950,7 +26976,7 @@
       <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="77"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -26964,7 +26990,7 @@
         <v>85.761904761899999</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="77"/>
+      <c r="K18" s="73"/>
       <c r="L18" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -27326,19 +27352,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
       <c r="P1" s="35" t="s">
         <v>31</v>
       </c>
@@ -27377,15 +27403,15 @@
       <c r="D2" s="1">
         <v>-0.61349206349200003</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="72"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="6"/>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="72"/>
+      <c r="N2" s="77"/>
       <c r="P2" s="38" t="s">
         <v>24</v>
       </c>
@@ -27446,7 +27472,7 @@
       <c r="D4" s="1">
         <v>-0.101587301587</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="10">
@@ -27461,7 +27487,7 @@
         <v>83.566666666700002</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="10">
@@ -27489,7 +27515,7 @@
       <c r="D5" s="1">
         <v>-0.106349206349</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="11">
         <v>1E-3</v>
       </c>
@@ -27502,7 +27528,7 @@
         <v>89.976190476200003</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="76"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="11">
         <v>1E-3</v>
       </c>
@@ -27544,7 +27570,7 @@
       <c r="D6" s="1">
         <v>-2.3015873015899999E-2</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="11">
         <v>0.01</v>
       </c>
@@ -27557,7 +27583,7 @@
         <v>92.795238095200006</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="76"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="11">
         <v>0.01</v>
       </c>
@@ -27615,7 +27641,7 @@
       <c r="D7" s="1">
         <v>-4.8412698412700003E-2</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="11">
         <v>0.1</v>
       </c>
@@ -27628,7 +27654,7 @@
         <v>93.790476190500002</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="76"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="11">
         <v>0.1</v>
       </c>
@@ -27690,7 +27716,7 @@
       <c r="D8" s="1">
         <v>-4.3650793650799997E-2</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="11">
         <v>0.5</v>
       </c>
@@ -27703,7 +27729,7 @@
         <v>94.085714285700007</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="76"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="11">
         <v>0.5</v>
       </c>
@@ -27763,7 +27789,7 @@
       <c r="D9" s="1">
         <v>-3.0952380952400001E-2</v>
       </c>
-      <c r="F9" s="76"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="11">
         <v>1</v>
       </c>
@@ -27776,7 +27802,7 @@
         <v>94.140476190499996</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="76"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="11">
         <v>1</v>
       </c>
@@ -27836,7 +27862,7 @@
       <c r="D10" s="1">
         <v>-5.7142857142900003E-2</v>
       </c>
-      <c r="F10" s="76"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="11">
         <v>1.5</v>
       </c>
@@ -27849,7 +27875,7 @@
         <v>94.154761904799997</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="76"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="11">
         <v>1.5</v>
       </c>
@@ -27909,7 +27935,7 @@
       <c r="D11" s="1">
         <v>-7.2222222222199997E-2</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="11">
         <v>2</v>
       </c>
@@ -27922,7 +27948,7 @@
         <v>94.166666666699996</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="76"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="11">
         <v>2</v>
       </c>
@@ -27982,7 +28008,7 @@
       <c r="D12" s="1">
         <v>-6.9841269841299999E-2</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="11">
         <v>2.5</v>
       </c>
@@ -27995,7 +28021,7 @@
         <v>94.166666666699996</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="11">
         <v>2.5</v>
       </c>
@@ -28055,7 +28081,7 @@
       <c r="D13" s="1">
         <v>-1.26984126984E-2</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="11">
         <v>3</v>
       </c>
@@ -28068,7 +28094,7 @@
         <v>94.161904761900004</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="76"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="11">
         <v>3</v>
       </c>
@@ -28128,7 +28154,7 @@
       <c r="D14" s="1">
         <v>3.9682539682499999E-3</v>
       </c>
-      <c r="F14" s="76"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="11">
         <v>3.5</v>
       </c>
@@ -28141,7 +28167,7 @@
         <v>94.164285714299993</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="76"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="11">
         <v>3.5</v>
       </c>
@@ -28201,7 +28227,7 @@
       <c r="D15" s="1">
         <v>2.4603174603199999E-2</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="11">
         <v>4</v>
       </c>
@@ -28214,7 +28240,7 @@
         <v>94.1714285714</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="76"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="11">
         <v>4</v>
       </c>
@@ -28262,7 +28288,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="F16" s="76"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="11">
         <v>4.5</v>
       </c>
@@ -28275,7 +28301,7 @@
         <v>94.173809523800003</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="76"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="11">
         <v>4.5</v>
       </c>
@@ -28335,7 +28361,7 @@
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="77"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="12">
         <v>5</v>
       </c>
@@ -28348,7 +28374,7 @@
         <v>94.176190476200006</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="77"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="12">
         <v>5</v>
       </c>
@@ -28705,19 +28731,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
       <c r="P1" s="35" t="s">
         <v>31</v>
       </c>
@@ -28756,15 +28782,15 @@
       <c r="D2" s="1">
         <v>-0.33492063492099999</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="72"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="6"/>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="72"/>
+      <c r="N2" s="77"/>
       <c r="P2" s="38" t="s">
         <v>24</v>
       </c>
@@ -28825,7 +28851,7 @@
       <c r="D4" s="1">
         <v>-0.169047619048</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="10">
@@ -28840,7 +28866,7 @@
         <v>89.635714285700004</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="10">
@@ -28868,7 +28894,7 @@
       <c r="D5" s="1">
         <v>-0.115873015873</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="11">
         <v>1E-3</v>
       </c>
@@ -28881,7 +28907,7 @@
         <v>93.647619047600003</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="76"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="11">
         <v>1E-3</v>
       </c>
@@ -28923,7 +28949,7 @@
       <c r="D6" s="1">
         <v>-0.115873015873</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="11">
         <v>0.01</v>
       </c>
@@ -28936,7 +28962,7 @@
         <v>93.576190476199997</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="76"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="11">
         <v>0.01</v>
       </c>
@@ -28994,7 +29020,7 @@
       <c r="D7" s="1">
         <v>-0.115873015873</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="11">
         <v>0.1</v>
       </c>
@@ -29007,7 +29033,7 @@
         <v>93.45</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="76"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="11">
         <v>0.1</v>
       </c>
@@ -29069,7 +29095,7 @@
       <c r="D8" s="1">
         <v>-0.115873015873</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="11">
         <v>0.5</v>
       </c>
@@ -29082,7 +29108,7 @@
         <v>93.445238095199997</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="76"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="11">
         <v>0.5</v>
       </c>
@@ -29142,7 +29168,7 @@
       <c r="D9" s="1">
         <v>-0.115873015873</v>
       </c>
-      <c r="F9" s="76"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="11">
         <v>1</v>
       </c>
@@ -29155,7 +29181,7 @@
         <v>93.876190476199994</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="76"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="11">
         <v>1</v>
       </c>
@@ -29215,7 +29241,7 @@
       <c r="D10" s="1">
         <v>-0.115873015873</v>
       </c>
-      <c r="F10" s="76"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="11">
         <v>1.5</v>
       </c>
@@ -29228,7 +29254,7 @@
         <v>93.207142857099996</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="76"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="11">
         <v>1.5</v>
       </c>
@@ -29288,7 +29314,7 @@
       <c r="D11" s="1">
         <v>-0.115873015873</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="11">
         <v>2</v>
       </c>
@@ -29301,7 +29327,7 @@
         <v>93.430952380999997</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="76"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="11">
         <v>2</v>
       </c>
@@ -29361,7 +29387,7 @@
       <c r="D12" s="1">
         <v>-0.115873015873</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="11">
         <v>2.5</v>
       </c>
@@ -29374,7 +29400,7 @@
         <v>93.554761904800003</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="11">
         <v>2.5</v>
       </c>
@@ -29434,7 +29460,7 @@
       <c r="D13" s="1">
         <v>-0.115873015873</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="11">
         <v>3</v>
       </c>
@@ -29447,7 +29473,7 @@
         <v>91.523809523799997</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="76"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="11">
         <v>3</v>
       </c>
@@ -29507,7 +29533,7 @@
       <c r="D14" s="1">
         <v>-0.115873015873</v>
       </c>
-      <c r="F14" s="76"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="11">
         <v>3.5</v>
       </c>
@@ -29520,7 +29546,7 @@
         <v>90.954761904799994</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="76"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="11">
         <v>3.5</v>
       </c>
@@ -29580,7 +29606,7 @@
       <c r="D15" s="1">
         <v>-0.115873015873</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="11">
         <v>4</v>
       </c>
@@ -29593,7 +29619,7 @@
         <v>89.659523809500001</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="76"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="11">
         <v>4</v>
       </c>
@@ -29641,7 +29667,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="F16" s="76"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="11">
         <v>4.5</v>
       </c>
@@ -29654,7 +29680,7 @@
         <v>93.438095238100004</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="76"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="11">
         <v>4.5</v>
       </c>
@@ -29714,7 +29740,7 @@
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="77"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="12">
         <v>5</v>
       </c>
@@ -29727,7 +29753,7 @@
         <v>93.928571428599994</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="77"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="12">
         <v>5</v>
       </c>
@@ -30053,9 +30079,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -30086,135 +30112,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
       <c r="J1" s="26"/>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="U1" s="73" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="U1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AE1" s="73" t="s">
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AE1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
     </row>
     <row r="2" spans="1:39" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="83" t="str">
+      <c r="A2" s="75" t="str">
         <f>Cifar10_RawPixel!F1</f>
         <v>Training Accuracy</v>
       </c>
-      <c r="B2" s="83">
+      <c r="B2" s="75">
         <f>Cifar10_RawPixel!G1</f>
         <v>0</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="75">
         <f>Cifar10_RawPixel!H1</f>
         <v>0</v>
       </c>
-      <c r="D2" s="83">
+      <c r="D2" s="75">
         <f>Cifar10_RawPixel!I1</f>
         <v>0</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="83" t="str">
+      <c r="F2" s="75" t="str">
         <f>Cifar10_RawPixel!K1</f>
         <v>Validation Accuracy</v>
       </c>
-      <c r="G2" s="83">
+      <c r="G2" s="75">
         <f>Cifar10_RawPixel!L1</f>
         <v>0</v>
       </c>
-      <c r="H2" s="83">
+      <c r="H2" s="75">
         <f>Cifar10_RawPixel!M1</f>
         <v>0</v>
       </c>
-      <c r="I2" s="83">
+      <c r="I2" s="75">
         <f>Cifar10_RawPixel!N1</f>
         <v>0</v>
       </c>
-      <c r="K2" s="83" t="str">
+      <c r="K2" s="75" t="str">
         <f>Cifar10_RawPixelGray!F1</f>
         <v>Training Accuracy</v>
       </c>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="83" t="s">
+      <c r="P2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="U2" s="83" t="str">
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="U2" s="75" t="str">
         <f>Cifar10_DownsHOG!F1</f>
         <v>Training Accuracy</v>
       </c>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
       <c r="Y2" s="9"/>
-      <c r="Z2" s="83" t="s">
+      <c r="Z2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AE2" s="83" t="s">
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AE2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
       <c r="AI2" s="9"/>
-      <c r="AJ2" s="83" t="s">
+      <c r="AJ2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
     </row>
     <row r="3" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="72"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="6">
         <f>Cifar10_RawPixel!J2</f>
         <v>0</v>
@@ -30224,50 +30250,50 @@
         <v>0</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="72"/>
+      <c r="I3" s="77"/>
       <c r="J3" s="6"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="72"/>
+      <c r="N3" s="77"/>
       <c r="O3" s="6"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="71" t="s">
+      <c r="R3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="72"/>
+      <c r="S3" s="77"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="71" t="s">
+      <c r="W3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="72"/>
+      <c r="X3" s="77"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-      <c r="AB3" s="71" t="s">
+      <c r="AB3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="72"/>
+      <c r="AC3" s="77"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
-      <c r="AG3" s="71" t="s">
+      <c r="AG3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="AH3" s="72"/>
+      <c r="AH3" s="77"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
-      <c r="AL3" s="71" t="s">
+      <c r="AL3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="AM3" s="72"/>
+      <c r="AM3" s="77"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
@@ -30341,7 +30367,7 @@
       </c>
     </row>
     <row r="5" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="10">
@@ -30357,7 +30383,7 @@
         <v>47.425714285700003</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="10">
@@ -30373,7 +30399,7 @@
         <v>39.346666666700003</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="75" t="str">
+      <c r="K5" s="71" t="str">
         <f>Cifar10_RawPixelGray!F4</f>
         <v>C</v>
       </c>
@@ -30390,7 +30416,7 @@
         <v>12.628571428600001</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="75" t="s">
+      <c r="P5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="10">
@@ -30405,7 +30431,7 @@
         <f>Cifar10_RawPixelGray!N4</f>
         <v>12.9866666667</v>
       </c>
-      <c r="U5" s="75" t="s">
+      <c r="U5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="V5" s="22">
@@ -30421,7 +30447,7 @@
         <v>10.274285714299999</v>
       </c>
       <c r="Y5" s="54"/>
-      <c r="Z5" s="75" t="s">
+      <c r="Z5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="AA5" s="22">
@@ -30436,7 +30462,7 @@
         <f>Cifar10_DownsHOG!N4</f>
         <v>10.6266666667</v>
       </c>
-      <c r="AE5" s="91" t="s">
+      <c r="AE5" s="88" t="s">
         <v>10</v>
       </c>
       <c r="AF5" s="22">
@@ -30452,7 +30478,7 @@
         <v>33.017142857099998</v>
       </c>
       <c r="AI5" s="4"/>
-      <c r="AJ5" s="75" t="s">
+      <c r="AJ5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="AK5" s="22">
@@ -30469,7 +30495,7 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="76"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="11">
         <f>Cifar10_RawPixel!G5</f>
         <v>9.9999999999999995E-7</v>
@@ -30483,7 +30509,7 @@
         <v>50.788571428600001</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="76"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="11">
         <f>Cifar10_RawPixel!L5</f>
         <v>9.9999999999999995E-7</v>
@@ -30497,7 +30523,7 @@
         <v>37.4666666667</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="76">
+      <c r="K6" s="72">
         <f>Cifar10_RawPixelGray!F5</f>
         <v>0</v>
       </c>
@@ -30514,7 +30540,7 @@
         <v>22.014285714300001</v>
       </c>
       <c r="O6" s="4"/>
-      <c r="P6" s="76"/>
+      <c r="P6" s="72"/>
       <c r="Q6" s="11">
         <f>Cifar10_RawPixelGray!L5</f>
         <v>9.9999999999999995E-7</v>
@@ -30527,7 +30553,7 @@
         <f>Cifar10_RawPixelGray!N5</f>
         <v>22.0133333333</v>
       </c>
-      <c r="U6" s="76"/>
+      <c r="U6" s="72"/>
       <c r="V6" s="23">
         <f>Cifar10_DownsHOG!G5</f>
         <v>1E-3</v>
@@ -30541,7 +30567,7 @@
         <v>12.32</v>
       </c>
       <c r="Y6" s="54"/>
-      <c r="Z6" s="76"/>
+      <c r="Z6" s="72"/>
       <c r="AA6" s="23">
         <f>Cifar10_DownsHOG!L5</f>
         <v>1E-3</v>
@@ -30554,7 +30580,7 @@
         <f>Cifar10_DownsHOG!N5</f>
         <v>12.186666666700001</v>
       </c>
-      <c r="AE6" s="92"/>
+      <c r="AE6" s="89"/>
       <c r="AF6" s="23">
         <f>Cifar10_BOW!G5</f>
         <v>1E-3</v>
@@ -30568,7 +30594,7 @@
         <v>34.291428571399997</v>
       </c>
       <c r="AI6" s="4"/>
-      <c r="AJ6" s="76"/>
+      <c r="AJ6" s="72"/>
       <c r="AK6" s="23">
         <f>Cifar10_BOW!L5</f>
         <v>1E-3</v>
@@ -30583,7 +30609,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A7" s="76"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="11">
         <f>Cifar10_RawPixel!G6</f>
         <v>1.0000000000000001E-5</v>
@@ -30597,7 +30623,7 @@
         <v>41.162857142900002</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="76"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="11">
         <f>Cifar10_RawPixel!L6</f>
         <v>1.0000000000000001E-5</v>
@@ -30611,7 +30637,7 @@
         <v>28.406666666700001</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="76">
+      <c r="K7" s="72">
         <f>Cifar10_RawPixelGray!F6</f>
         <v>0</v>
       </c>
@@ -30628,7 +30654,7 @@
         <v>26.317142857099999</v>
       </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="76"/>
+      <c r="P7" s="72"/>
       <c r="Q7" s="11">
         <f>Cifar10_RawPixelGray!L6</f>
         <v>1.0000000000000001E-5</v>
@@ -30641,7 +30667,7 @@
         <f>Cifar10_RawPixelGray!N6</f>
         <v>26.046666666699998</v>
       </c>
-      <c r="U7" s="76"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="23">
         <f>Cifar10_DownsHOG!G6</f>
         <v>2.5000000000000001E-3</v>
@@ -30655,7 +30681,7 @@
         <v>13.0971428571</v>
       </c>
       <c r="Y7" s="54"/>
-      <c r="Z7" s="76"/>
+      <c r="Z7" s="72"/>
       <c r="AA7" s="23">
         <f>Cifar10_DownsHOG!L6</f>
         <v>2.5000000000000001E-3</v>
@@ -30668,7 +30694,7 @@
         <f>Cifar10_DownsHOG!N6</f>
         <v>13.1733333333</v>
       </c>
-      <c r="AE7" s="92"/>
+      <c r="AE7" s="89"/>
       <c r="AF7" s="23">
         <f>Cifar10_BOW!G6</f>
         <v>0.01</v>
@@ -30682,7 +30708,7 @@
         <v>34.54</v>
       </c>
       <c r="AI7" s="4"/>
-      <c r="AJ7" s="76"/>
+      <c r="AJ7" s="72"/>
       <c r="AK7" s="23">
         <f>Cifar10_BOW!L6</f>
         <v>0.01</v>
@@ -30697,7 +30723,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A8" s="76"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="11">
         <f>Cifar10_RawPixel!G7</f>
         <v>1E-4</v>
@@ -30711,7 +30737,7 @@
         <v>33.411428571400002</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="76"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="11">
         <f>Cifar10_RawPixel!L7</f>
         <v>1E-4</v>
@@ -30725,7 +30751,7 @@
         <v>24.813333333300001</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="76">
+      <c r="K8" s="72">
         <f>Cifar10_RawPixelGray!F7</f>
         <v>0</v>
       </c>
@@ -30742,7 +30768,7 @@
         <v>30.274285714299999</v>
       </c>
       <c r="O8" s="4"/>
-      <c r="P8" s="76"/>
+      <c r="P8" s="72"/>
       <c r="Q8" s="11">
         <f>Cifar10_RawPixelGray!L7</f>
         <v>1E-4</v>
@@ -30755,7 +30781,7 @@
         <f>Cifar10_RawPixelGray!N7</f>
         <v>29.12</v>
       </c>
-      <c r="U8" s="76"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="23">
         <f>Cifar10_DownsHOG!G7</f>
         <v>5.0000000000000001E-3</v>
@@ -30769,7 +30795,7 @@
         <v>19.2</v>
       </c>
       <c r="Y8" s="54"/>
-      <c r="Z8" s="76"/>
+      <c r="Z8" s="72"/>
       <c r="AA8" s="23">
         <f>Cifar10_DownsHOG!L7</f>
         <v>5.0000000000000001E-3</v>
@@ -30782,7 +30808,7 @@
         <f>Cifar10_DownsHOG!N7</f>
         <v>19.773333333299998</v>
       </c>
-      <c r="AE8" s="92"/>
+      <c r="AE8" s="89"/>
       <c r="AF8" s="23">
         <f>Cifar10_BOW!G7</f>
         <v>2.5000000000000001E-2</v>
@@ -30796,7 +30822,7 @@
         <v>34.548571428599999</v>
       </c>
       <c r="AI8" s="4"/>
-      <c r="AJ8" s="76"/>
+      <c r="AJ8" s="72"/>
       <c r="AK8" s="23">
         <f>Cifar10_BOW!L7</f>
         <v>2.5000000000000001E-2</v>
@@ -30811,7 +30837,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A9" s="76"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="11">
         <f>Cifar10_RawPixel!G8</f>
         <v>2.5000000000000001E-4</v>
@@ -30825,7 +30851,7 @@
         <v>28.1485714286</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="76"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="11">
         <f>Cifar10_RawPixel!L8</f>
         <v>2.5000000000000001E-4</v>
@@ -30839,7 +30865,7 @@
         <v>21.633333333300001</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="76">
+      <c r="K9" s="72">
         <f>Cifar10_RawPixelGray!F8</f>
         <v>0</v>
       </c>
@@ -30856,7 +30882,7 @@
         <v>31.294285714299999</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="P9" s="76"/>
+      <c r="P9" s="72"/>
       <c r="Q9" s="11">
         <f>Cifar10_RawPixelGray!L8</f>
         <v>2.5000000000000001E-4</v>
@@ -30869,7 +30895,7 @@
         <f>Cifar10_RawPixelGray!N8</f>
         <v>29.68</v>
       </c>
-      <c r="U9" s="76"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="23">
         <f>Cifar10_DownsHOG!G8</f>
         <v>7.4999999999999997E-3</v>
@@ -30883,7 +30909,7 @@
         <v>23.8285714286</v>
       </c>
       <c r="Y9" s="54"/>
-      <c r="Z9" s="76"/>
+      <c r="Z9" s="72"/>
       <c r="AA9" s="23">
         <f>Cifar10_DownsHOG!L8</f>
         <v>7.4999999999999997E-3</v>
@@ -30896,7 +30922,7 @@
         <f>Cifar10_DownsHOG!N8</f>
         <v>23.933333333299998</v>
       </c>
-      <c r="AE9" s="92"/>
+      <c r="AE9" s="89"/>
       <c r="AF9" s="23">
         <f>Cifar10_BOW!G8</f>
         <v>0.05</v>
@@ -30910,7 +30936,7 @@
         <v>34.545714285700001</v>
       </c>
       <c r="AI9" s="4"/>
-      <c r="AJ9" s="76"/>
+      <c r="AJ9" s="72"/>
       <c r="AK9" s="23">
         <f>Cifar10_BOW!L8</f>
         <v>0.05</v>
@@ -30925,7 +30951,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A10" s="76"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="11">
         <f>Cifar10_RawPixel!G9</f>
         <v>5.0000000000000001E-3</v>
@@ -30939,7 +30965,7 @@
         <v>42.902857142899997</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="76"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="11">
         <f>Cifar10_RawPixel!L9</f>
         <v>5.0000000000000001E-3</v>
@@ -30953,7 +30979,7 @@
         <v>29.246666666700001</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="76">
+      <c r="K10" s="72">
         <f>Cifar10_RawPixelGray!F9</f>
         <v>0</v>
       </c>
@@ -30970,7 +30996,7 @@
         <v>33.894285714299997</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="P10" s="76"/>
+      <c r="P10" s="72"/>
       <c r="Q10" s="11">
         <f>Cifar10_RawPixelGray!L9</f>
         <v>5.0000000000000001E-3</v>
@@ -30983,7 +31009,7 @@
         <f>Cifar10_RawPixelGray!N9</f>
         <v>29.16</v>
       </c>
-      <c r="U10" s="76"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="23">
         <f>Cifar10_DownsHOG!G9</f>
         <v>0.01</v>
@@ -30997,7 +31023,7 @@
         <v>14.4228571429</v>
       </c>
       <c r="Y10" s="54"/>
-      <c r="Z10" s="76"/>
+      <c r="Z10" s="72"/>
       <c r="AA10" s="23">
         <f>Cifar10_DownsHOG!L9</f>
         <v>0.01</v>
@@ -31010,7 +31036,7 @@
         <f>Cifar10_DownsHOG!N9</f>
         <v>15.0666666667</v>
       </c>
-      <c r="AE10" s="92"/>
+      <c r="AE10" s="89"/>
       <c r="AF10" s="23">
         <f>Cifar10_BOW!G9</f>
         <v>7.4999999999999997E-2</v>
@@ -31024,7 +31050,7 @@
         <v>34.548571428599999</v>
       </c>
       <c r="AI10" s="4"/>
-      <c r="AJ10" s="76"/>
+      <c r="AJ10" s="72"/>
       <c r="AK10" s="23">
         <f>Cifar10_BOW!L9</f>
         <v>7.4999999999999997E-2</v>
@@ -31039,7 +31065,7 @@
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="11">
         <f>Cifar10_RawPixel!G10</f>
         <v>0.01</v>
@@ -31053,7 +31079,7 @@
         <v>27.7457142857</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="76"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="11">
         <f>Cifar10_RawPixel!L10</f>
         <v>0.01</v>
@@ -31067,7 +31093,7 @@
         <v>21.14</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="76">
+      <c r="K11" s="72">
         <f>Cifar10_RawPixelGray!F10</f>
         <v>0</v>
       </c>
@@ -31084,7 +31110,7 @@
         <v>34.385714285699997</v>
       </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="76"/>
+      <c r="P11" s="72"/>
       <c r="Q11" s="11">
         <f>Cifar10_RawPixelGray!L10</f>
         <v>0.01</v>
@@ -31097,7 +31123,7 @@
         <f>Cifar10_RawPixelGray!N10</f>
         <v>28.573333333299999</v>
       </c>
-      <c r="U11" s="76"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="23">
         <f>Cifar10_DownsHOG!G10</f>
         <v>2.5000000000000001E-2</v>
@@ -31111,7 +31137,7 @@
         <v>12.8457142857</v>
       </c>
       <c r="Y11" s="54"/>
-      <c r="Z11" s="76"/>
+      <c r="Z11" s="72"/>
       <c r="AA11" s="23">
         <f>Cifar10_DownsHOG!L10</f>
         <v>2.5000000000000001E-2</v>
@@ -31124,7 +31150,7 @@
         <f>Cifar10_DownsHOG!N10</f>
         <v>12.8266666667</v>
       </c>
-      <c r="AE11" s="92"/>
+      <c r="AE11" s="89"/>
       <c r="AF11" s="23">
         <f>Cifar10_BOW!G10</f>
         <v>0.1</v>
@@ -31138,7 +31164,7 @@
         <v>34.551428571400002</v>
       </c>
       <c r="AI11" s="4"/>
-      <c r="AJ11" s="76"/>
+      <c r="AJ11" s="72"/>
       <c r="AK11" s="23">
         <f>Cifar10_BOW!L10</f>
         <v>0.1</v>
@@ -31153,7 +31179,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A12" s="76"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="11">
         <f>Cifar10_RawPixel!G11</f>
         <v>2.5000000000000001E-2</v>
@@ -31167,7 +31193,7 @@
         <v>34.302857142900002</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="76"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="11">
         <f>Cifar10_RawPixel!L11</f>
         <v>2.5000000000000001E-2</v>
@@ -31181,7 +31207,7 @@
         <v>23.766666666700001</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="76">
+      <c r="K12" s="72">
         <f>Cifar10_RawPixelGray!F11</f>
         <v>0</v>
       </c>
@@ -31198,7 +31224,7 @@
         <v>34.845714285699998</v>
       </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="76"/>
+      <c r="P12" s="72"/>
       <c r="Q12" s="11">
         <f>Cifar10_RawPixelGray!L11</f>
         <v>2.5000000000000001E-2</v>
@@ -31211,7 +31237,7 @@
         <f>Cifar10_RawPixelGray!N11</f>
         <v>27.8533333333</v>
       </c>
-      <c r="U12" s="76"/>
+      <c r="U12" s="72"/>
       <c r="V12" s="23">
         <f>Cifar10_DownsHOG!G11</f>
         <v>0.05</v>
@@ -31225,7 +31251,7 @@
         <v>11.7714285714</v>
       </c>
       <c r="Y12" s="54"/>
-      <c r="Z12" s="76"/>
+      <c r="Z12" s="72"/>
       <c r="AA12" s="23">
         <f>Cifar10_DownsHOG!L11</f>
         <v>0.05</v>
@@ -31238,7 +31264,7 @@
         <f>Cifar10_DownsHOG!N11</f>
         <v>11.36</v>
       </c>
-      <c r="AE12" s="92"/>
+      <c r="AE12" s="89"/>
       <c r="AF12" s="23">
         <f>Cifar10_BOW!G11</f>
         <v>0.25</v>
@@ -31252,7 +31278,7 @@
         <v>34.548571428599999</v>
       </c>
       <c r="AI12" s="4"/>
-      <c r="AJ12" s="76"/>
+      <c r="AJ12" s="72"/>
       <c r="AK12" s="23">
         <f>Cifar10_BOW!L11</f>
         <v>0.25</v>
@@ -31267,7 +31293,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A13" s="76"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="11">
         <f>Cifar10_RawPixel!G12</f>
         <v>0.05</v>
@@ -31281,7 +31307,7 @@
         <v>29.44</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="76"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="11">
         <f>Cifar10_RawPixel!L12</f>
         <v>0.05</v>
@@ -31295,7 +31321,7 @@
         <v>22.2866666667</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="76">
+      <c r="K13" s="72">
         <f>Cifar10_RawPixelGray!F12</f>
         <v>0</v>
       </c>
@@ -31312,7 +31338,7 @@
         <v>35.191428571400003</v>
       </c>
       <c r="O13" s="4"/>
-      <c r="P13" s="76"/>
+      <c r="P13" s="72"/>
       <c r="Q13" s="11">
         <f>Cifar10_RawPixelGray!L12</f>
         <v>0.05</v>
@@ -31325,7 +31351,7 @@
         <f>Cifar10_RawPixelGray!N12</f>
         <v>27.493333333300001</v>
       </c>
-      <c r="U13" s="76"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="23">
         <f>Cifar10_DownsHOG!G12</f>
         <v>7.4999999999999997E-2</v>
@@ -31339,7 +31365,7 @@
         <v>16.554285714300001</v>
       </c>
       <c r="Y13" s="54"/>
-      <c r="Z13" s="76"/>
+      <c r="Z13" s="72"/>
       <c r="AA13" s="23">
         <f>Cifar10_DownsHOG!L12</f>
         <v>7.4999999999999997E-2</v>
@@ -31352,7 +31378,7 @@
         <f>Cifar10_DownsHOG!N12</f>
         <v>17.16</v>
       </c>
-      <c r="AE13" s="92"/>
+      <c r="AE13" s="89"/>
       <c r="AF13" s="23">
         <f>Cifar10_BOW!G12</f>
         <v>0.5</v>
@@ -31366,7 +31392,7 @@
         <v>34.525714285699998</v>
       </c>
       <c r="AI13" s="4"/>
-      <c r="AJ13" s="76"/>
+      <c r="AJ13" s="72"/>
       <c r="AK13" s="23">
         <f>Cifar10_BOW!L12</f>
         <v>0.5</v>
@@ -31381,7 +31407,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A14" s="76"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="11">
         <f>Cifar10_RawPixel!G13</f>
         <v>7.4999999999999997E-2</v>
@@ -31395,7 +31421,7 @@
         <v>27.7628571429</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="76"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="11">
         <f>Cifar10_RawPixel!L13</f>
         <v>7.4999999999999997E-2</v>
@@ -31409,7 +31435,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="76">
+      <c r="K14" s="72">
         <f>Cifar10_RawPixelGray!F13</f>
         <v>0</v>
       </c>
@@ -31426,7 +31452,7 @@
         <v>35.374285714300001</v>
       </c>
       <c r="O14" s="4"/>
-      <c r="P14" s="76"/>
+      <c r="P14" s="72"/>
       <c r="Q14" s="11">
         <f>Cifar10_RawPixelGray!L13</f>
         <v>7.4999999999999997E-2</v>
@@ -31439,7 +31465,7 @@
         <f>Cifar10_RawPixelGray!N13</f>
         <v>27.266666666700001</v>
       </c>
-      <c r="U14" s="76"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="23">
         <f>Cifar10_DownsHOG!G13</f>
         <v>0.1</v>
@@ -31453,7 +31479,7 @@
         <v>16.554285714300001</v>
       </c>
       <c r="Y14" s="54"/>
-      <c r="Z14" s="76"/>
+      <c r="Z14" s="72"/>
       <c r="AA14" s="23">
         <f>Cifar10_DownsHOG!L13</f>
         <v>0.1</v>
@@ -31466,7 +31492,7 @@
         <f>Cifar10_DownsHOG!N13</f>
         <v>17.16</v>
       </c>
-      <c r="AE14" s="92"/>
+      <c r="AE14" s="89"/>
       <c r="AF14" s="23">
         <f>Cifar10_BOW!G13</f>
         <v>0.75</v>
@@ -31480,7 +31506,7 @@
         <v>34.528571428600003</v>
       </c>
       <c r="AI14" s="4"/>
-      <c r="AJ14" s="76"/>
+      <c r="AJ14" s="72"/>
       <c r="AK14" s="23">
         <f>Cifar10_BOW!L13</f>
         <v>0.75</v>
@@ -31495,7 +31521,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A15" s="76"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="11">
         <f>Cifar10_RawPixel!G14</f>
         <v>0.1</v>
@@ -31509,7 +31535,7 @@
         <v>21.54</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="76"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="11">
         <f>Cifar10_RawPixel!L14</f>
         <v>0.1</v>
@@ -31523,7 +31549,7 @@
         <v>16.273333333299998</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="76">
+      <c r="K15" s="72">
         <f>Cifar10_RawPixelGray!F14</f>
         <v>0</v>
       </c>
@@ -31540,7 +31566,7 @@
         <v>35.497142857100002</v>
       </c>
       <c r="O15" s="4"/>
-      <c r="P15" s="76"/>
+      <c r="P15" s="72"/>
       <c r="Q15" s="11">
         <f>Cifar10_RawPixelGray!L14</f>
         <v>0.1</v>
@@ -31553,7 +31579,7 @@
         <f>Cifar10_RawPixelGray!N14</f>
         <v>27.186666666699999</v>
       </c>
-      <c r="U15" s="76"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="23">
         <f>Cifar10_DownsHOG!G14</f>
         <v>0.5</v>
@@ -31567,7 +31593,7 @@
         <v>15.2571428571</v>
       </c>
       <c r="Y15" s="54"/>
-      <c r="Z15" s="76"/>
+      <c r="Z15" s="72"/>
       <c r="AA15" s="23">
         <f>Cifar10_DownsHOG!L14</f>
         <v>0.5</v>
@@ -31580,7 +31606,7 @@
         <f>Cifar10_DownsHOG!N14</f>
         <v>15.493333333300001</v>
       </c>
-      <c r="AE15" s="92"/>
+      <c r="AE15" s="89"/>
       <c r="AF15" s="23">
         <f>Cifar10_BOW!G14</f>
         <v>1</v>
@@ -31594,7 +31620,7 @@
         <v>34.514285714300001</v>
       </c>
       <c r="AI15" s="4"/>
-      <c r="AJ15" s="76"/>
+      <c r="AJ15" s="72"/>
       <c r="AK15" s="23">
         <f>Cifar10_BOW!L14</f>
         <v>1</v>
@@ -31609,7 +31635,7 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A16" s="76"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="11">
         <f>Cifar10_RawPixel!G15</f>
         <v>0.25</v>
@@ -31623,7 +31649,7 @@
         <v>38.06</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="76"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="11">
         <f>Cifar10_RawPixel!L15</f>
         <v>0.25</v>
@@ -31637,7 +31663,7 @@
         <v>26.506666666699999</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="76">
+      <c r="K16" s="72">
         <f>Cifar10_RawPixelGray!F15</f>
         <v>0</v>
       </c>
@@ -31654,7 +31680,7 @@
         <v>35.619999999999997</v>
       </c>
       <c r="O16" s="4"/>
-      <c r="P16" s="76"/>
+      <c r="P16" s="72"/>
       <c r="Q16" s="11">
         <f>Cifar10_RawPixelGray!L15</f>
         <v>0.25</v>
@@ -31667,7 +31693,7 @@
         <f>Cifar10_RawPixelGray!N15</f>
         <v>26.8066666667</v>
       </c>
-      <c r="U16" s="76"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="23">
         <f>Cifar10_DownsHOG!G15</f>
         <v>0.75</v>
@@ -31681,7 +31707,7 @@
         <v>15.2571428571</v>
       </c>
       <c r="Y16" s="54"/>
-      <c r="Z16" s="76"/>
+      <c r="Z16" s="72"/>
       <c r="AA16" s="23">
         <f>Cifar10_DownsHOG!L15</f>
         <v>0.75</v>
@@ -31694,7 +31720,7 @@
         <f>Cifar10_DownsHOG!N15</f>
         <v>15.493333333300001</v>
       </c>
-      <c r="AE16" s="92"/>
+      <c r="AE16" s="89"/>
       <c r="AF16" s="23">
         <f>Cifar10_BOW!G15</f>
         <v>1.25</v>
@@ -31708,7 +31734,7 @@
         <v>34.5085714286</v>
       </c>
       <c r="AI16" s="4"/>
-      <c r="AJ16" s="76"/>
+      <c r="AJ16" s="72"/>
       <c r="AK16" s="23">
         <f>Cifar10_BOW!L15</f>
         <v>1.25</v>
@@ -31723,7 +31749,7 @@
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A17" s="76"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="11">
         <f>Cifar10_RawPixel!G16</f>
         <v>0.5</v>
@@ -31737,7 +31763,7 @@
         <v>40.4914285714</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="76"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="11">
         <f>Cifar10_RawPixel!L16</f>
         <v>0.5</v>
@@ -31751,7 +31777,7 @@
         <v>27.106666666700001</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="76">
+      <c r="K17" s="72">
         <f>Cifar10_RawPixelGray!F16</f>
         <v>0</v>
       </c>
@@ -31768,7 +31794,7 @@
         <v>35.088571428599998</v>
       </c>
       <c r="O17" s="4"/>
-      <c r="P17" s="76"/>
+      <c r="P17" s="72"/>
       <c r="Q17" s="11">
         <f>Cifar10_RawPixelGray!L16</f>
         <v>0.5</v>
@@ -31781,7 +31807,7 @@
         <f>Cifar10_RawPixelGray!N16</f>
         <v>26.113333333300002</v>
       </c>
-      <c r="U17" s="76"/>
+      <c r="U17" s="72"/>
       <c r="V17" s="23">
         <f>Cifar10_DownsHOG!G16</f>
         <v>1</v>
@@ -31795,7 +31821,7 @@
         <v>15.2571428571</v>
       </c>
       <c r="Y17" s="54"/>
-      <c r="Z17" s="76"/>
+      <c r="Z17" s="72"/>
       <c r="AA17" s="23">
         <f>Cifar10_DownsHOG!L16</f>
         <v>1</v>
@@ -31808,7 +31834,7 @@
         <f>Cifar10_DownsHOG!N16</f>
         <v>15.493333333300001</v>
       </c>
-      <c r="AE17" s="92"/>
+      <c r="AE17" s="89"/>
       <c r="AF17" s="23">
         <f>Cifar10_BOW!G16</f>
         <v>1.5</v>
@@ -31822,7 +31848,7 @@
         <v>34.514285714300001</v>
       </c>
       <c r="AI17" s="4"/>
-      <c r="AJ17" s="76"/>
+      <c r="AJ17" s="72"/>
       <c r="AK17" s="23">
         <f>Cifar10_BOW!L16</f>
         <v>1.5</v>
@@ -31837,7 +31863,7 @@
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A18" s="76"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="11">
         <f>Cifar10_RawPixel!G17</f>
         <v>0.75</v>
@@ -31851,7 +31877,7 @@
         <v>40.4914285714</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="76"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="11">
         <f>Cifar10_RawPixel!L17</f>
         <v>0.75</v>
@@ -31865,7 +31891,7 @@
         <v>27.106666666700001</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="76">
+      <c r="K18" s="72">
         <f>Cifar10_RawPixelGray!F17</f>
         <v>0</v>
       </c>
@@ -31882,7 +31908,7 @@
         <v>35.917142857100004</v>
       </c>
       <c r="O18" s="4"/>
-      <c r="P18" s="76"/>
+      <c r="P18" s="72"/>
       <c r="Q18" s="11">
         <f>Cifar10_RawPixelGray!L17</f>
         <v>0.75</v>
@@ -31895,7 +31921,7 @@
         <f>Cifar10_RawPixelGray!N17</f>
         <v>26.633333333300001</v>
       </c>
-      <c r="U18" s="76"/>
+      <c r="U18" s="72"/>
       <c r="V18" s="23">
         <f>Cifar10_DownsHOG!G17</f>
         <v>1.25</v>
@@ -31909,7 +31935,7 @@
         <v>15.2571428571</v>
       </c>
       <c r="Y18" s="54"/>
-      <c r="Z18" s="76"/>
+      <c r="Z18" s="72"/>
       <c r="AA18" s="23">
         <f>Cifar10_DownsHOG!L17</f>
         <v>1.25</v>
@@ -31922,7 +31948,7 @@
         <f>Cifar10_DownsHOG!N17</f>
         <v>15.493333333300001</v>
       </c>
-      <c r="AE18" s="92"/>
+      <c r="AE18" s="89"/>
       <c r="AF18" s="23">
         <f>Cifar10_BOW!G17</f>
         <v>1.75</v>
@@ -31936,7 +31962,7 @@
         <v>34.382857142900001</v>
       </c>
       <c r="AI18" s="4"/>
-      <c r="AJ18" s="76"/>
+      <c r="AJ18" s="72"/>
       <c r="AK18" s="23">
         <f>Cifar10_BOW!L17</f>
         <v>1.75</v>
@@ -31951,7 +31977,7 @@
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A19" s="77"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="12">
         <f>Cifar10_RawPixel!G18</f>
         <v>1</v>
@@ -31965,7 +31991,7 @@
         <v>37.974285714300002</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="77"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="12">
         <f>Cifar10_RawPixel!L18</f>
         <v>1</v>
@@ -31979,7 +32005,7 @@
         <v>26.3066666667</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="77">
+      <c r="K19" s="73">
         <f>Cifar10_RawPixelGray!F18</f>
         <v>0</v>
       </c>
@@ -31996,7 +32022,7 @@
         <v>31.5742857143</v>
       </c>
       <c r="O19" s="4"/>
-      <c r="P19" s="77"/>
+      <c r="P19" s="73"/>
       <c r="Q19" s="12">
         <f>Cifar10_RawPixelGray!L18</f>
         <v>1</v>
@@ -32009,7 +32035,7 @@
         <f>Cifar10_RawPixelGray!N18</f>
         <v>23.78</v>
       </c>
-      <c r="U19" s="76"/>
+      <c r="U19" s="72"/>
       <c r="V19" s="64">
         <f>Cifar10_DownsHOG!G18</f>
         <v>1.5</v>
@@ -32023,7 +32049,7 @@
         <v>15.2571428571</v>
       </c>
       <c r="Y19" s="53"/>
-      <c r="Z19" s="76"/>
+      <c r="Z19" s="72"/>
       <c r="AA19" s="64">
         <f>Cifar10_DownsHOG!L18</f>
         <v>1.5</v>
@@ -32036,7 +32062,7 @@
         <f>Cifar10_DownsHOG!N18</f>
         <v>15.493333333300001</v>
       </c>
-      <c r="AE19" s="92"/>
+      <c r="AE19" s="89"/>
       <c r="AF19" s="23">
         <f>Cifar10_BOW!G18</f>
         <v>2</v>
@@ -32050,7 +32076,7 @@
         <v>34.4142857143</v>
       </c>
       <c r="AI19" s="4"/>
-      <c r="AJ19" s="76"/>
+      <c r="AJ19" s="72"/>
       <c r="AK19" s="23">
         <f>Cifar10_BOW!L18</f>
         <v>2</v>
@@ -32065,7 +32091,7 @@
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="U20" s="76"/>
+      <c r="U20" s="72"/>
       <c r="V20" s="64">
         <f>Cifar10_DownsHOG!G19</f>
         <v>1.75</v>
@@ -32079,7 +32105,7 @@
         <v>15.2571428571</v>
       </c>
       <c r="Y20" s="53"/>
-      <c r="Z20" s="76"/>
+      <c r="Z20" s="72"/>
       <c r="AA20" s="64">
         <f>Cifar10_DownsHOG!L19</f>
         <v>1.75</v>
@@ -32092,7 +32118,7 @@
         <f>Cifar10_DownsHOG!N19</f>
         <v>15.493333333300001</v>
       </c>
-      <c r="AE20" s="92"/>
+      <c r="AE20" s="89"/>
       <c r="AF20" s="23">
         <f>Cifar10_BOW!G19</f>
         <v>2.5</v>
@@ -32106,7 +32132,7 @@
         <v>34.408571428599998</v>
       </c>
       <c r="AI20" s="4"/>
-      <c r="AJ20" s="76"/>
+      <c r="AJ20" s="72"/>
       <c r="AK20" s="23">
         <f>Cifar10_BOW!L19</f>
         <v>2.5</v>
@@ -32121,7 +32147,7 @@
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="U21" s="77"/>
+      <c r="U21" s="73"/>
       <c r="V21" s="65">
         <f>Cifar10_DownsHOG!G20</f>
         <v>2</v>
@@ -32135,7 +32161,7 @@
         <v>15.2571428571</v>
       </c>
       <c r="Y21" s="53"/>
-      <c r="Z21" s="77"/>
+      <c r="Z21" s="73"/>
       <c r="AA21" s="65">
         <f>Cifar10_DownsHOG!L20</f>
         <v>2</v>
@@ -32148,7 +32174,7 @@
         <f>Cifar10_DownsHOG!N20</f>
         <v>15.493333333300001</v>
       </c>
-      <c r="AE21" s="92"/>
+      <c r="AE21" s="89"/>
       <c r="AF21" s="23">
         <f>Cifar10_BOW!G20</f>
         <v>3</v>
@@ -32162,7 +32188,7 @@
         <v>34.06</v>
       </c>
       <c r="AI21" s="4"/>
-      <c r="AJ21" s="76"/>
+      <c r="AJ21" s="72"/>
       <c r="AK21" s="23">
         <f>Cifar10_BOW!L20</f>
         <v>3</v>
@@ -32186,7 +32212,7 @@
       <c r="G22" s="84"/>
       <c r="H22" s="84"/>
       <c r="I22" s="84"/>
-      <c r="AE22" s="92"/>
+      <c r="AE22" s="89"/>
       <c r="AF22" s="23">
         <f>Cifar10_BOW!G21</f>
         <v>4</v>
@@ -32200,7 +32226,7 @@
         <v>33.797142857099999</v>
       </c>
       <c r="AI22" s="4"/>
-      <c r="AJ22" s="76"/>
+      <c r="AJ22" s="72"/>
       <c r="AK22" s="23">
         <f>Cifar10_BOW!L21</f>
         <v>4</v>
@@ -32221,18 +32247,18 @@
       <c r="D23" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="90" t="s">
+      <c r="E23" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
       <c r="H23" s="61" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="AE23" s="93"/>
+      <c r="AE23" s="90"/>
       <c r="AF23" s="24">
         <f>Cifar10_BOW!G22</f>
         <v>5</v>
@@ -32246,7 +32272,7 @@
         <v>32.597142857100003</v>
       </c>
       <c r="AI23" s="4"/>
-      <c r="AJ23" s="77"/>
+      <c r="AJ23" s="73"/>
       <c r="AK23" s="24">
         <f>Cifar10_BOW!L22</f>
         <v>5</v>
@@ -32268,15 +32294,15 @@
         <f>Cifar10_RawPixel!G23</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="E24" s="88" t="str">
+      <c r="E24" s="92" t="str">
         <f>Cifar10_RawPixel!H23</f>
         <v>Squared Hinge</v>
       </c>
-      <c r="F24" s="88">
+      <c r="F24" s="92">
         <f>Cifar10_RawPixel!I23</f>
         <v>46.155999999999999</v>
       </c>
-      <c r="G24" s="88">
+      <c r="G24" s="92">
         <f>Cifar10_RawPixel!J23</f>
         <v>39.47</v>
       </c>
@@ -32297,15 +32323,15 @@
         <f>Cifar10_RawPixelGray!G23</f>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="E25" s="88" t="str">
+      <c r="E25" s="92" t="str">
         <f>Cifar10_RawPixelGray!H23</f>
         <v>Squared Hinge</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F25" s="92">
         <f>Cifar10_RawPixelGray!I23</f>
         <v>30.998000000000001</v>
       </c>
-      <c r="G25" s="88">
+      <c r="G25" s="92">
         <f>Cifar10_RawPixelGray!J23</f>
         <v>30.08</v>
       </c>
@@ -32326,12 +32352,12 @@
         <f>Cifar10_DownsHOG!G25</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="E26" s="88" t="str">
+      <c r="E26" s="92" t="str">
         <f>Cifar10_DownsHOG!H25</f>
         <v>Squared Hinge</v>
       </c>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
       <c r="H26" s="44">
         <f>Cifar10_DownsHOG!I25</f>
         <v>16.77</v>
@@ -32349,12 +32375,12 @@
         <f>Cifar10_BOW!G28</f>
         <v>2</v>
       </c>
-      <c r="E27" s="89" t="str">
+      <c r="E27" s="93" t="str">
         <f>Cifar10_BOW!H28</f>
         <v>Squared Hinge</v>
       </c>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
       <c r="H27" s="55">
         <f>Cifar10_BOW!I28</f>
         <v>34.112000000000002</v>
@@ -32364,20 +32390,37 @@
         <v>32.78</v>
       </c>
     </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="C29" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="95">
+        <f>'X Cifar10_HOG'!G29</f>
+        <v>2.5</v>
+      </c>
+      <c r="E29" s="95" t="str">
+        <f>'X Cifar10_HOG'!H29</f>
+        <v>Squared Hinge</v>
+      </c>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95">
+        <f>'X Cifar10_HOG'!I29</f>
+        <v>36.61</v>
+      </c>
+      <c r="I29" s="96">
+        <f>'X Cifar10_HOG'!J29</f>
+        <v>36.86</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AE5:AE23"/>
-    <mergeCell ref="AJ5:AJ23"/>
-    <mergeCell ref="K5:K19"/>
-    <mergeCell ref="P5:P19"/>
-    <mergeCell ref="U5:U21"/>
-    <mergeCell ref="Z5:Z21"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="F5:F19"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C22:I22"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E24:G24"/>
@@ -32394,12 +32437,18 @@
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="A5:A19"/>
+    <mergeCell ref="F5:F19"/>
+    <mergeCell ref="AE5:AE23"/>
+    <mergeCell ref="AJ5:AJ23"/>
+    <mergeCell ref="K5:K19"/>
+    <mergeCell ref="P5:P19"/>
+    <mergeCell ref="U5:U21"/>
+    <mergeCell ref="Z5:Z21"/>
   </mergeCells>
   <conditionalFormatting sqref="AI5:AI23">
     <cfRule type="colorScale" priority="9">
@@ -32585,19 +32634,19 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
       <c r="P1" s="35" t="s">
         <v>30</v>
       </c>
@@ -32636,15 +32685,15 @@
       <c r="D2" s="4">
         <v>5.9285714285699997</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="72"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="6"/>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="72"/>
+      <c r="N2" s="77"/>
       <c r="P2" s="38" t="s">
         <v>24</v>
       </c>
@@ -32724,7 +32773,7 @@
       <c r="D4" s="4">
         <v>13.1133333333</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="10">
@@ -32740,7 +32789,7 @@
         <v>47.425714285700003</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="10">
@@ -32781,7 +32830,7 @@
       <c r="D5" s="4">
         <v>4.3457142857099997</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>9.9999999999999995E-7</v>
@@ -32795,7 +32844,7 @@
         <v>50.788571428600001</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="76"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="11">
         <f>A3</f>
         <v>9.9999999999999995E-7</v>
@@ -32838,7 +32887,7 @@
       <c r="D6" s="4">
         <v>13.0447619048</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
@@ -32852,7 +32901,7 @@
         <v>41.162857142900002</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="76"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="11">
         <f t="shared" ref="L6:L18" si="4">A4</f>
         <v>1.0000000000000001E-5</v>
@@ -32912,7 +32961,7 @@
       <c r="D7" s="4">
         <v>7.9333333333300002</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>1E-4</v>
@@ -32926,7 +32975,7 @@
         <v>33.411428571400002</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="76"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="11">
         <f t="shared" si="4"/>
         <v>1E-4</v>
@@ -32989,7 +33038,7 @@
       <c r="D8" s="4">
         <v>7.9333333333300002</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-4</v>
@@ -33003,7 +33052,7 @@
         <v>28.1485714286</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="76"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="11">
         <f t="shared" si="4"/>
         <v>2.5000000000000001E-4</v>
@@ -33064,7 +33113,7 @@
       <c r="D9" s="4">
         <v>7.9333333333300002</v>
       </c>
-      <c r="F9" s="76"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
@@ -33078,7 +33127,7 @@
         <v>42.902857142899997</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="76"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="11">
         <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
@@ -33139,7 +33188,7 @@
       <c r="D10" s="4">
         <v>7.9333333333300002</v>
       </c>
-      <c r="F10" s="76"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>0.01</v>
@@ -33153,7 +33202,7 @@
         <v>27.7457142857</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="76"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="11">
         <f t="shared" si="4"/>
         <v>0.01</v>
@@ -33214,7 +33263,7 @@
       <c r="D11" s="4">
         <v>7.9333333333300002</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
@@ -33228,7 +33277,7 @@
         <v>34.302857142900002</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="76"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="11">
         <f t="shared" si="4"/>
         <v>2.5000000000000001E-2</v>
@@ -33289,7 +33338,7 @@
       <c r="D12" s="4">
         <v>7.9333333333300002</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>0.05</v>
@@ -33303,7 +33352,7 @@
         <v>29.44</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="11">
         <f t="shared" si="4"/>
         <v>0.05</v>
@@ -33364,7 +33413,7 @@
       <c r="D13" s="4">
         <v>7.9333333333300002</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
@@ -33378,7 +33427,7 @@
         <v>27.7628571429</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="76"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="11">
         <f t="shared" si="4"/>
         <v>7.4999999999999997E-2</v>
@@ -33439,7 +33488,7 @@
       <c r="D14" s="4">
         <v>7.9333333333300002</v>
       </c>
-      <c r="F14" s="76"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>0.1</v>
@@ -33453,7 +33502,7 @@
         <v>21.54</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="76"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="11">
         <f t="shared" si="4"/>
         <v>0.1</v>
@@ -33514,7 +33563,7 @@
       <c r="D15" s="4">
         <v>7.9333333333300002</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
         <v>0.25</v>
@@ -33528,7 +33577,7 @@
         <v>38.06</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="76"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="11">
         <f t="shared" si="4"/>
         <v>0.25</v>
@@ -33589,7 +33638,7 @@
       <c r="D16" s="4">
         <v>7.9333333333300002</v>
       </c>
-      <c r="F16" s="76"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -33603,7 +33652,7 @@
         <v>40.4914285714</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="76"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="11">
         <f t="shared" si="4"/>
         <v>0.5</v>
@@ -33652,7 +33701,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="F17" s="76"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>0.75</v>
@@ -33666,7 +33715,7 @@
         <v>40.4914285714</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="76"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="11">
         <f t="shared" si="4"/>
         <v>0.75</v>
@@ -33693,7 +33742,7 @@
       <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="77"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -33707,7 +33756,7 @@
         <v>37.974285714300002</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="77"/>
+      <c r="K18" s="73"/>
       <c r="L18" s="12">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -34073,19 +34122,19 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
       <c r="P1" s="35" t="s">
         <v>30</v>
       </c>
@@ -34124,15 +34173,15 @@
       <c r="D2" s="4">
         <v>-0.26380952381</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="72"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="6"/>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="72"/>
+      <c r="N2" s="77"/>
       <c r="P2" s="38" t="s">
         <v>24</v>
       </c>
@@ -34212,7 +34261,7 @@
       <c r="D4" s="4">
         <v>0.48380952380999998</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="10">
@@ -34228,7 +34277,7 @@
         <v>12.628571428600001</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="10">
@@ -34269,7 +34318,7 @@
       <c r="D5" s="4">
         <v>1.1219047619</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>9.9999999999999995E-7</v>
@@ -34283,7 +34332,7 @@
         <v>22.014285714300001</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="76"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="11">
         <f>A3</f>
         <v>9.9999999999999995E-7</v>
@@ -34326,7 +34375,7 @@
       <c r="D6" s="4">
         <v>1.4066666666700001</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
@@ -34340,7 +34389,7 @@
         <v>26.317142857099999</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="76"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="11">
         <f t="shared" ref="L6:L18" si="4">A4</f>
         <v>1.0000000000000001E-5</v>
@@ -34400,7 +34449,7 @@
       <c r="D7" s="4">
         <v>5.2438095238100004</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>1E-4</v>
@@ -34414,7 +34463,7 @@
         <v>30.274285714299999</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="76"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="11">
         <f t="shared" si="4"/>
         <v>1E-4</v>
@@ -34477,7 +34526,7 @@
       <c r="D8" s="4">
         <v>3.9123809523799999</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-4</v>
@@ -34491,7 +34540,7 @@
         <v>31.294285714299999</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="76"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="11">
         <f t="shared" si="4"/>
         <v>2.5000000000000001E-4</v>
@@ -34552,7 +34601,7 @@
       <c r="D9" s="4">
         <v>4.1209523809500004</v>
       </c>
-      <c r="F9" s="76"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
@@ -34566,7 +34615,7 @@
         <v>33.894285714299997</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="76"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="11">
         <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
@@ -34627,7 +34676,7 @@
       <c r="D10" s="4">
         <v>3.6009523809499999</v>
       </c>
-      <c r="F10" s="76"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>0.01</v>
@@ -34641,7 +34690,7 @@
         <v>34.385714285699997</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="76"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="11">
         <f t="shared" si="4"/>
         <v>0.01</v>
@@ -34702,7 +34751,7 @@
       <c r="D11" s="4">
         <v>4.7628571428599997</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
@@ -34716,7 +34765,7 @@
         <v>34.845714285699998</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="76"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="11">
         <f t="shared" si="4"/>
         <v>2.5000000000000001E-2</v>
@@ -34777,7 +34826,7 @@
       <c r="D12" s="4">
         <v>4.4390476190500001</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>0.05</v>
@@ -34791,7 +34840,7 @@
         <v>35.191428571400003</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="11">
         <f t="shared" si="4"/>
         <v>0.05</v>
@@ -34852,7 +34901,7 @@
       <c r="D13" s="4">
         <v>4.1514285714300003</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
@@ -34866,7 +34915,7 @@
         <v>35.374285714300001</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="76"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="11">
         <f t="shared" si="4"/>
         <v>7.4999999999999997E-2</v>
@@ -34927,7 +34976,7 @@
       <c r="D14" s="4">
         <v>3.8476190476199998</v>
       </c>
-      <c r="F14" s="76"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>0.1</v>
@@ -34941,7 +34990,7 @@
         <v>35.497142857100002</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="76"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="11">
         <f t="shared" si="4"/>
         <v>0.1</v>
@@ -35002,7 +35051,7 @@
       <c r="D15" s="4">
         <v>4.3857142857099998</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
         <v>0.25</v>
@@ -35016,7 +35065,7 @@
         <v>35.619999999999997</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="76"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="11">
         <f t="shared" si="4"/>
         <v>0.25</v>
@@ -35077,7 +35126,7 @@
       <c r="D16" s="4">
         <v>4.1495238095199998</v>
       </c>
-      <c r="F16" s="76"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -35091,7 +35140,7 @@
         <v>35.088571428599998</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="76"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="11">
         <f t="shared" si="4"/>
         <v>0.5</v>
@@ -35140,7 +35189,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="F17" s="76"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>0.75</v>
@@ -35154,7 +35203,7 @@
         <v>35.917142857100004</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="76"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="11">
         <f t="shared" si="4"/>
         <v>0.75</v>
@@ -35181,7 +35230,7 @@
       <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="77"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -35195,7 +35244,7 @@
         <v>31.5742857143</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="77"/>
+      <c r="K18" s="73"/>
       <c r="L18" s="12">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -35531,7 +35580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="K1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -35559,19 +35608,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
       <c r="P1" s="35" t="s">
         <v>38</v>
       </c>
@@ -35611,15 +35660,15 @@
         <v>1.22476190476</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="72"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="6"/>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="72"/>
+      <c r="N2" s="77"/>
       <c r="P2" s="38" t="s">
         <v>24</v>
       </c>
@@ -35682,7 +35731,7 @@
         <v>0.21142857142900001</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="10">
@@ -35698,7 +35747,7 @@
         <v>33.017142857099998</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="88" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="10">
@@ -35728,7 +35777,7 @@
         <v>0.56666666666700005</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="76"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="11">
         <f t="shared" ref="G5:H21" si="0">A3</f>
         <v>1E-3</v>
@@ -35742,7 +35791,7 @@
         <v>34.291428571399997</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="92"/>
+      <c r="K5" s="89"/>
       <c r="L5" s="11">
         <f t="shared" ref="L5:L22" si="1">A3</f>
         <v>1E-3</v>
@@ -35786,7 +35835,7 @@
         <v>0.35809523809499999</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="76"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>0.01</v>
@@ -35800,7 +35849,7 @@
         <v>34.54</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="92"/>
+      <c r="K6" s="89"/>
       <c r="L6" s="11">
         <f t="shared" si="1"/>
         <v>0.01</v>
@@ -35860,7 +35909,7 @@
         <v>0.85523809523799998</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="76"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
@@ -35874,7 +35923,7 @@
         <v>34.548571428599999</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="92"/>
+      <c r="K7" s="89"/>
       <c r="L7" s="11">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
@@ -35938,7 +35987,7 @@
         <v>0.19523809523800001</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="76"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>0.05</v>
@@ -35952,7 +36001,7 @@
         <v>34.545714285700001</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="92"/>
+      <c r="K8" s="89"/>
       <c r="L8" s="11">
         <f t="shared" si="1"/>
         <v>0.05</v>
@@ -36014,7 +36063,7 @@
         <v>0.66190476190500003</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="76"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
@@ -36028,7 +36077,7 @@
         <v>34.548571428599999</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="92"/>
+      <c r="K9" s="89"/>
       <c r="L9" s="11">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
@@ -36090,7 +36139,7 @@
         <v>0.38761904761900001</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="76"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>0.1</v>
@@ -36104,7 +36153,7 @@
         <v>34.551428571400002</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="92"/>
+      <c r="K10" s="89"/>
       <c r="L10" s="11">
         <f t="shared" si="1"/>
         <v>0.1</v>
@@ -36166,7 +36215,7 @@
         <v>0.10476190476199999</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="76"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>0.25</v>
@@ -36180,7 +36229,7 @@
         <v>34.548571428599999</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="92"/>
+      <c r="K11" s="89"/>
       <c r="L11" s="11">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -36242,7 +36291,7 @@
         <v>0.73523809523799999</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="76"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -36256,7 +36305,7 @@
         <v>34.525714285699998</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="92"/>
+      <c r="K12" s="89"/>
       <c r="L12" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -36318,7 +36367,7 @@
         <v>0.27142857142900001</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="76"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>0.75</v>
@@ -36332,7 +36381,7 @@
         <v>34.528571428600003</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="92"/>
+      <c r="K13" s="89"/>
       <c r="L13" s="11">
         <f t="shared" si="1"/>
         <v>0.75</v>
@@ -36394,7 +36443,7 @@
         <v>-0.10476190476199999</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="76"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -36408,7 +36457,7 @@
         <v>34.514285714300001</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="92"/>
+      <c r="K14" s="89"/>
       <c r="L14" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -36470,7 +36519,7 @@
         <v>0.30857142857100001</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="76"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
         <v>1.25</v>
@@ -36484,7 +36533,7 @@
         <v>34.5085714286</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="92"/>
+      <c r="K15" s="89"/>
       <c r="L15" s="11">
         <f t="shared" si="1"/>
         <v>1.25</v>
@@ -36546,7 +36595,7 @@
         <v>0.30190476190499999</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="76"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>1.5</v>
@@ -36560,7 +36609,7 @@
         <v>34.514285714300001</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="92"/>
+      <c r="K16" s="89"/>
       <c r="L16" s="11">
         <f t="shared" si="1"/>
         <v>1.5</v>
@@ -36622,7 +36671,7 @@
         <v>0.52476190476200002</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="76"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>1.75</v>
@@ -36636,7 +36685,7 @@
         <v>34.382857142900001</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="92"/>
+      <c r="K17" s="89"/>
       <c r="L17" s="11">
         <f t="shared" si="1"/>
         <v>1.75</v>
@@ -36664,7 +36713,7 @@
         <v>0.24476190476199999</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="76"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -36678,7 +36727,7 @@
         <v>34.4142857143</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="92"/>
+      <c r="K18" s="89"/>
       <c r="L18" s="11">
         <f>A16</f>
         <v>2</v>
@@ -36706,7 +36755,7 @@
         <v>0.60761904761899999</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="76"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
         <v>2.5</v>
@@ -36720,7 +36769,7 @@
         <v>34.408571428599998</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="92"/>
+      <c r="K19" s="89"/>
       <c r="L19" s="11">
         <f t="shared" si="1"/>
         <v>2.5</v>
@@ -36748,7 +36797,7 @@
         <v>0.19142857142899999</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="76"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -36762,7 +36811,7 @@
         <v>34.06</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="92"/>
+      <c r="K20" s="89"/>
       <c r="L20" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -36781,7 +36830,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="76"/>
+      <c r="F21" s="72"/>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -36795,7 +36844,7 @@
         <v>33.797142857099999</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="92"/>
+      <c r="K21" s="89"/>
       <c r="L21" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -36823,7 +36872,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="77"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="12">
         <f>A20</f>
         <v>5</v>
@@ -36837,7 +36886,7 @@
         <v>32.597142857100003</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="93"/>
+      <c r="K22" s="90"/>
       <c r="L22" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -37296,19 +37345,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
       <c r="P1" s="35" t="s">
         <v>49</v>
       </c>
@@ -37347,15 +37396,15 @@
       <c r="D2" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="72"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="6"/>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="72"/>
+      <c r="N2" s="77"/>
       <c r="P2" s="38" t="s">
         <v>24</v>
       </c>
@@ -37416,7 +37465,7 @@
       <c r="D4" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="10">
@@ -37432,7 +37481,7 @@
         <v>10.274285714299999</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="10">
@@ -37461,7 +37510,7 @@
       <c r="D5" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="11">
         <f t="shared" ref="G5:G20" si="0">A3</f>
         <v>1E-3</v>
@@ -37475,7 +37524,7 @@
         <v>12.32</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="76"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="11">
         <f t="shared" ref="L5:L20" si="3">A3</f>
         <v>1E-3</v>
@@ -37518,7 +37567,7 @@
       <c r="D6" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
@@ -37532,7 +37581,7 @@
         <v>13.0971428571</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="76"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="11">
         <f t="shared" si="3"/>
         <v>2.5000000000000001E-3</v>
@@ -37591,7 +37640,7 @@
       <c r="D7" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
@@ -37605,7 +37654,7 @@
         <v>19.2</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="76"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="11">
         <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
@@ -37668,7 +37717,7 @@
       <c r="D8" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
@@ -37682,7 +37731,7 @@
         <v>23.8285714286</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="76"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="11">
         <f t="shared" si="3"/>
         <v>7.4999999999999997E-3</v>
@@ -37743,7 +37792,7 @@
       <c r="D9" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F9" s="76"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>0.01</v>
@@ -37757,7 +37806,7 @@
         <v>14.4228571429</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="76"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="11">
         <f t="shared" si="3"/>
         <v>0.01</v>
@@ -37818,7 +37867,7 @@
       <c r="D10" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F10" s="76"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
@@ -37832,7 +37881,7 @@
         <v>12.8457142857</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="76"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="11">
         <f t="shared" si="3"/>
         <v>2.5000000000000001E-2</v>
@@ -37893,7 +37942,7 @@
       <c r="D11" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>0.05</v>
@@ -37907,7 +37956,7 @@
         <v>11.7714285714</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="76"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="11">
         <f t="shared" si="3"/>
         <v>0.05</v>
@@ -37968,7 +38017,7 @@
       <c r="D12" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
@@ -37982,7 +38031,7 @@
         <v>16.554285714300001</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="11">
         <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
@@ -38043,7 +38092,7 @@
       <c r="D13" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>0.1</v>
@@ -38057,7 +38106,7 @@
         <v>16.554285714300001</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="76"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="11">
         <f t="shared" si="3"/>
         <v>0.1</v>
@@ -38118,7 +38167,7 @@
       <c r="D14" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F14" s="76"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -38132,7 +38181,7 @@
         <v>15.2571428571</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="76"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="11">
         <f t="shared" si="3"/>
         <v>0.5</v>
@@ -38193,7 +38242,7 @@
       <c r="D15" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
         <v>0.75</v>
@@ -38207,7 +38256,7 @@
         <v>15.2571428571</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="76"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="11">
         <f t="shared" si="3"/>
         <v>0.75</v>
@@ -38268,7 +38317,7 @@
       <c r="D16" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F16" s="76"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -38282,7 +38331,7 @@
         <v>15.2571428571</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="76"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="11">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -38343,7 +38392,7 @@
       <c r="D17" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F17" s="76"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>1.25</v>
@@ -38357,7 +38406,7 @@
         <v>15.2571428571</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="76"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="11">
         <f t="shared" si="3"/>
         <v>1.25</v>
@@ -38384,7 +38433,7 @@
       <c r="D18" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F18" s="76"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
         <v>1.5</v>
@@ -38398,7 +38447,7 @@
         <v>15.2571428571</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="76"/>
+      <c r="K18" s="72"/>
       <c r="L18" s="11">
         <f t="shared" si="3"/>
         <v>1.5</v>
@@ -38425,7 +38474,7 @@
       <c r="D19" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F19" s="76"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
         <v>1.75</v>
@@ -38439,7 +38488,7 @@
         <v>15.2571428571</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="76"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="11">
         <f t="shared" si="3"/>
         <v>1.75</v>
@@ -38466,7 +38515,7 @@
       <c r="D20" s="1">
         <v>-0.23619047619</v>
       </c>
-      <c r="F20" s="77"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -38480,7 +38529,7 @@
         <v>15.2571428571</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="77"/>
+      <c r="K20" s="73"/>
       <c r="L20" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
